--- a/additional_files/Global_PC1_with_FPKM_values.xlsx
+++ b/additional_files/Global_PC1_with_FPKM_values.xlsx
@@ -457,5068 +457,5068 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ENSMUSG00000061527</t>
+          <t>ENSMUSG00000055609</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Krt5</t>
+          <t>Hba-x</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>chr15:101707069-101712898</t>
+          <t>chr11:32276399-32278116</t>
         </is>
       </c>
       <c r="D2">
-        <v>119.365</v>
+        <v>37.3918</v>
       </c>
       <c r="E2">
-        <v>76.6058</v>
+        <v>289.501</v>
       </c>
       <c r="F2">
-        <v>360.681</v>
+        <v>27.0503</v>
       </c>
       <c r="G2">
-        <v>289.307</v>
+        <v>80.57769999999999</v>
       </c>
       <c r="H2">
-        <v>424.56</v>
+        <v>5.01291</v>
       </c>
       <c r="I2">
-        <v>461.446</v>
+        <v>11.0448</v>
       </c>
       <c r="J2">
-        <v>1042.93</v>
+        <v>8.42681</v>
       </c>
       <c r="K2">
-        <v>601.437</v>
+        <v>2.34314</v>
       </c>
       <c r="L2">
-        <v>0.362667</v>
+        <v>1369.86</v>
       </c>
       <c r="M2">
-        <v>0.0228535</v>
+        <v>1021.83</v>
       </c>
       <c r="N2">
-        <v>5.40038</v>
+        <v>2003.07</v>
       </c>
       <c r="O2">
-        <v>2.36825</v>
+        <v>1590.96</v>
       </c>
       <c r="P2">
-        <v>9.54224</v>
+        <v>1269.92</v>
       </c>
       <c r="Q2">
-        <v>4.03587</v>
+        <v>1380.82</v>
       </c>
       <c r="R2">
-        <v>1.7159</v>
+        <v>558.727</v>
       </c>
       <c r="S2">
-        <v>0.131827</v>
+        <v>576.841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025219</t>
+          <t>ENSMUSG00000052187</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fgf8</t>
+          <t>Hbb-y</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>chr19:45736797-45742915</t>
+          <t>chr7:103851748-103853216</t>
         </is>
       </c>
       <c r="D3">
-        <v>279.809</v>
+        <v>36.7092</v>
       </c>
       <c r="E3">
-        <v>164.964</v>
+        <v>301.978</v>
       </c>
       <c r="F3">
-        <v>1179.7</v>
+        <v>35.3067</v>
       </c>
       <c r="G3">
-        <v>769.556</v>
+        <v>114.812</v>
       </c>
       <c r="H3">
-        <v>153.809</v>
+        <v>10.9284</v>
       </c>
       <c r="I3">
-        <v>346.789</v>
+        <v>21.0864</v>
       </c>
       <c r="J3">
-        <v>49.1851</v>
+        <v>28.9754</v>
       </c>
       <c r="K3">
-        <v>60.9514</v>
+        <v>10.7026</v>
       </c>
       <c r="L3">
-        <v>0.722456</v>
+        <v>1363.5</v>
       </c>
       <c r="M3">
-        <v>0.159388</v>
+        <v>1113.56</v>
       </c>
       <c r="N3">
-        <v>6.80512</v>
+        <v>2282.04</v>
       </c>
       <c r="O3">
-        <v>3.13541</v>
+        <v>2387.72</v>
       </c>
       <c r="P3">
-        <v>3.33805</v>
+        <v>2372.75</v>
       </c>
       <c r="Q3">
-        <v>1.67492</v>
+        <v>2565.42</v>
       </c>
       <c r="R3">
-        <v>0.232383</v>
+        <v>2418.92</v>
       </c>
       <c r="S3">
-        <v>0.0548465</v>
+        <v>2098.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENSMUSG00000019851</t>
+          <t>ENSMUSG00000069919</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Perp</t>
+          <t>Hba-a1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chr10:18845019-18857073</t>
+          <t>chr11:32283510-32284465</t>
         </is>
       </c>
       <c r="D4">
-        <v>145.292</v>
+        <v>7.54972</v>
       </c>
       <c r="E4">
-        <v>111.152</v>
+        <v>44.2214</v>
       </c>
       <c r="F4">
-        <v>162.151</v>
+        <v>7.29385</v>
       </c>
       <c r="G4">
-        <v>138.858</v>
+        <v>16.0202</v>
       </c>
       <c r="H4">
-        <v>148.808</v>
+        <v>3.08005</v>
       </c>
       <c r="I4">
-        <v>158.003</v>
+        <v>3.42738</v>
       </c>
       <c r="J4">
-        <v>244.112</v>
+        <v>10.8669</v>
       </c>
       <c r="K4">
-        <v>201.328</v>
+        <v>1.69611</v>
       </c>
       <c r="L4">
-        <v>0.463848</v>
+        <v>239.117</v>
       </c>
       <c r="M4">
-        <v>0.154331</v>
+        <v>163.269</v>
       </c>
       <c r="N4">
-        <v>1.49794</v>
+        <v>441.317</v>
       </c>
       <c r="O4">
-        <v>1.11579</v>
+        <v>359.801</v>
       </c>
       <c r="P4">
-        <v>3.0572</v>
+        <v>538.467</v>
       </c>
       <c r="Q4">
-        <v>1.66033</v>
+        <v>392.447</v>
       </c>
       <c r="R4">
-        <v>0.356254</v>
+        <v>793.48</v>
       </c>
       <c r="S4">
-        <v>0.0296745</v>
+        <v>391.882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ENSMUSG00000033227</t>
+          <t>ENSMUSG00000052217</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wnt6</t>
+          <t>Hbb-bh1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>chr1:74771891-74785322</t>
+          <t>chr7:103841636-103843164</t>
         </is>
       </c>
       <c r="D5">
-        <v>184.578</v>
+        <v>33.047</v>
       </c>
       <c r="E5">
-        <v>131.225</v>
+        <v>240.348</v>
       </c>
       <c r="F5">
-        <v>226.891</v>
+        <v>22.217</v>
       </c>
       <c r="G5">
-        <v>139.531</v>
+        <v>54.5293</v>
       </c>
       <c r="H5">
-        <v>160.248</v>
+        <v>1.78487</v>
       </c>
       <c r="I5">
-        <v>158.124</v>
+        <v>4.55959</v>
       </c>
       <c r="J5">
-        <v>158.716</v>
+        <v>1.99472</v>
       </c>
       <c r="K5">
-        <v>128.86</v>
+        <v>0.644687</v>
       </c>
       <c r="L5">
-        <v>0.507146</v>
+        <v>1259.15</v>
       </c>
       <c r="M5">
-        <v>0.266683</v>
+        <v>836.026</v>
       </c>
       <c r="N5">
-        <v>2.62011</v>
+        <v>1328.48</v>
       </c>
       <c r="O5">
-        <v>1.05168</v>
+        <v>1041.84</v>
       </c>
       <c r="P5">
-        <v>3.38674</v>
+        <v>400.596</v>
       </c>
       <c r="Q5">
-        <v>1.03344</v>
+        <v>513.7430000000001</v>
       </c>
       <c r="R5">
-        <v>0.388802</v>
+        <v>70.0363</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>151.851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047281</t>
+          <t>ENSMUSG00000031871</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sfn</t>
+          <t>Cdh5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>chr4:133600555-133602168</t>
+          <t>chr8:104101624-104144511</t>
         </is>
       </c>
       <c r="D6">
-        <v>35.6721</v>
+        <v>0.894849</v>
       </c>
       <c r="E6">
-        <v>28.454</v>
+        <v>0.321874</v>
       </c>
       <c r="F6">
-        <v>178.175</v>
+        <v>0.192303</v>
       </c>
       <c r="G6">
-        <v>135.239</v>
+        <v>0.70076</v>
       </c>
       <c r="H6">
-        <v>159.973</v>
+        <v>0.159023</v>
       </c>
       <c r="I6">
-        <v>151.922</v>
+        <v>0.09994740000000001</v>
       </c>
       <c r="J6">
-        <v>240.675</v>
+        <v>0.519397</v>
       </c>
       <c r="K6">
-        <v>142.488</v>
+        <v>0.240239</v>
       </c>
       <c r="L6">
-        <v>0.0898134</v>
+        <v>25.9701</v>
       </c>
       <c r="M6">
-        <v>0.124511</v>
+        <v>20.3098</v>
       </c>
       <c r="N6">
-        <v>1.93477</v>
+        <v>23.2874</v>
       </c>
       <c r="O6">
-        <v>0.6001300000000001</v>
+        <v>20.8534</v>
       </c>
       <c r="P6">
-        <v>3.29131</v>
+        <v>38.5161</v>
       </c>
       <c r="Q6">
-        <v>1.40271</v>
+        <v>27.5368</v>
       </c>
       <c r="R6">
-        <v>0.226909</v>
+        <v>41.244</v>
       </c>
       <c r="S6">
-        <v>0.107733</v>
+        <v>36.5092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026185</t>
+          <t>ENSMUSG00000034845</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Igfbp5</t>
+          <t>Plvap</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>chr1:72857931-72874884</t>
+          <t>chr8:71497764-71511752</t>
         </is>
       </c>
       <c r="D7">
-        <v>748.409</v>
+        <v>2.01334</v>
       </c>
       <c r="E7">
-        <v>507.262</v>
+        <v>0.896055</v>
       </c>
       <c r="F7">
-        <v>783.02</v>
+        <v>0.281192</v>
       </c>
       <c r="G7">
-        <v>737.724</v>
+        <v>0.676284</v>
       </c>
       <c r="H7">
-        <v>653.404</v>
+        <v>0.142101</v>
       </c>
       <c r="I7">
-        <v>702.95</v>
+        <v>0.0861219</v>
       </c>
       <c r="J7">
-        <v>517.847</v>
+        <v>0.559438</v>
       </c>
       <c r="K7">
-        <v>734.842</v>
+        <v>0.227302</v>
       </c>
       <c r="L7">
-        <v>19.5197</v>
+        <v>31.0408</v>
       </c>
       <c r="M7">
-        <v>19.0771</v>
+        <v>24.6623</v>
       </c>
       <c r="N7">
-        <v>8.84745</v>
+        <v>23.9128</v>
       </c>
       <c r="O7">
-        <v>4.53302</v>
+        <v>16.2898</v>
       </c>
       <c r="P7">
-        <v>14.7558</v>
+        <v>30.9501</v>
       </c>
       <c r="Q7">
-        <v>6.74019</v>
+        <v>21.2657</v>
       </c>
       <c r="R7">
-        <v>4.0464</v>
+        <v>34.2426</v>
       </c>
       <c r="S7">
-        <v>3.79992</v>
+        <v>19.8815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023906</t>
+          <t>ENSMUSG00000016494</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cldn6</t>
+          <t>Cd34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>chr17:23679364-23682446</t>
+          <t>chr1:194938818-194961279</t>
         </is>
       </c>
       <c r="D8">
-        <v>219.857</v>
+        <v>2.36624</v>
       </c>
       <c r="E8">
-        <v>163.38</v>
+        <v>1.08443</v>
       </c>
       <c r="F8">
-        <v>190.556</v>
+        <v>0.519572</v>
       </c>
       <c r="G8">
-        <v>146.223</v>
+        <v>0.915344</v>
       </c>
       <c r="H8">
-        <v>98.96939999999999</v>
+        <v>0.798854</v>
       </c>
       <c r="I8">
-        <v>136.771</v>
+        <v>0.365704</v>
       </c>
       <c r="J8">
-        <v>127.817</v>
+        <v>0.476843</v>
       </c>
       <c r="K8">
-        <v>106.914</v>
+        <v>0.230055</v>
       </c>
       <c r="L8">
-        <v>0.625265</v>
+        <v>39.2524</v>
       </c>
       <c r="M8">
-        <v>1.2669</v>
+        <v>28.0083</v>
       </c>
       <c r="N8">
-        <v>2.05357</v>
+        <v>19.9382</v>
       </c>
       <c r="O8">
-        <v>1.52658</v>
+        <v>19.1552</v>
       </c>
       <c r="P8">
-        <v>2.93334</v>
+        <v>28.4333</v>
       </c>
       <c r="Q8">
-        <v>1.33995</v>
+        <v>22.9259</v>
       </c>
       <c r="R8">
-        <v>0.121515</v>
+        <v>25.0198</v>
       </c>
       <c r="S8">
-        <v>0.0384626</v>
+        <v>20.5561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022510</t>
+          <t>ENSMUSG00000052305</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Trp63</t>
+          <t>Hbb-bs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chr16:25683762-25892102</t>
+          <t>chr7:103826533-103828096</t>
         </is>
       </c>
       <c r="D9">
-        <v>115.195</v>
+        <v>0.271073</v>
       </c>
       <c r="E9">
-        <v>109.711</v>
+        <v>10.6993</v>
       </c>
       <c r="F9">
-        <v>103.97</v>
+        <v>0.222424</v>
       </c>
       <c r="G9">
-        <v>105.196</v>
+        <v>1.1183</v>
       </c>
       <c r="H9">
-        <v>89.0968</v>
+        <v>0.505811</v>
       </c>
       <c r="I9">
-        <v>105.883</v>
+        <v>0.544981</v>
       </c>
       <c r="J9">
-        <v>131.398</v>
+        <v>3.22656</v>
       </c>
       <c r="K9">
-        <v>147.83</v>
+        <v>0.179797</v>
       </c>
       <c r="L9">
-        <v>0.383261</v>
+        <v>7.42486</v>
       </c>
       <c r="M9">
-        <v>0.182445</v>
+        <v>4.11522</v>
       </c>
       <c r="N9">
-        <v>1.43527</v>
+        <v>13.3492</v>
       </c>
       <c r="O9">
-        <v>0.802969</v>
+        <v>23.7324</v>
       </c>
       <c r="P9">
-        <v>2.23088</v>
+        <v>92.31659999999999</v>
       </c>
       <c r="Q9">
-        <v>1.40195</v>
+        <v>29.0179</v>
       </c>
       <c r="R9">
-        <v>0.332922</v>
+        <v>206.941</v>
       </c>
       <c r="S9">
-        <v>0.249207</v>
+        <v>63.1427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENSMUSG00000002980</t>
+          <t>ENSMUSG00000044338</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bcam</t>
+          <t>Aplnr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chr7:19756130-19771016</t>
+          <t>chr2:85136224-85139923</t>
         </is>
       </c>
       <c r="D10">
-        <v>271.2</v>
+        <v>1.05026</v>
       </c>
       <c r="E10">
-        <v>194.689</v>
+        <v>0.789376</v>
       </c>
       <c r="F10">
-        <v>357.019</v>
+        <v>0.396502</v>
       </c>
       <c r="G10">
-        <v>257.453</v>
+        <v>0.666021</v>
       </c>
       <c r="H10">
-        <v>298.298</v>
+        <v>0.216834</v>
       </c>
       <c r="I10">
-        <v>282.27</v>
+        <v>0.107945</v>
       </c>
       <c r="J10">
-        <v>336.817</v>
+        <v>0.6241679999999999</v>
       </c>
       <c r="K10">
-        <v>274.962</v>
+        <v>0.167888</v>
       </c>
       <c r="L10">
-        <v>7.78321</v>
+        <v>14.9118</v>
       </c>
       <c r="M10">
-        <v>4.63023</v>
+        <v>13.4515</v>
       </c>
       <c r="N10">
-        <v>4.6878</v>
+        <v>14.7227</v>
       </c>
       <c r="O10">
-        <v>2.01752</v>
+        <v>16.6834</v>
       </c>
       <c r="P10">
-        <v>7.92888</v>
+        <v>26.7769</v>
       </c>
       <c r="Q10">
-        <v>3.81379</v>
+        <v>22.8564</v>
       </c>
       <c r="R10">
-        <v>1.44654</v>
+        <v>30.0501</v>
       </c>
       <c r="S10">
-        <v>0.810804</v>
+        <v>21.1486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ENSMUSG00000045545</t>
+          <t>ENSMUSG00000019230</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Krt14</t>
+          <t>Lhx9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>chr11:100203161-100207548</t>
+          <t>chr1:138825185-138848577</t>
         </is>
       </c>
       <c r="D11">
-        <v>5.51406</v>
+        <v>5.45811</v>
       </c>
       <c r="E11">
-        <v>6.32051</v>
+        <v>4.34652</v>
       </c>
       <c r="F11">
-        <v>59.2703</v>
+        <v>6.49334</v>
       </c>
       <c r="G11">
-        <v>66.60850000000001</v>
+        <v>13.2663</v>
       </c>
       <c r="H11">
-        <v>285.847</v>
+        <v>51.2898</v>
       </c>
       <c r="I11">
-        <v>242.174</v>
+        <v>6.05525</v>
       </c>
       <c r="J11">
-        <v>719.596</v>
+        <v>4.89739</v>
       </c>
       <c r="K11">
-        <v>442.539</v>
+        <v>5.54853</v>
       </c>
       <c r="L11">
-        <v>0.106647</v>
+        <v>60.1129</v>
       </c>
       <c r="M11">
-        <v>0.0591391</v>
+        <v>80.8394</v>
       </c>
       <c r="N11">
-        <v>1.20872</v>
+        <v>103.05</v>
       </c>
       <c r="O11">
-        <v>0.178153</v>
+        <v>117.462</v>
       </c>
       <c r="P11">
-        <v>7.05186</v>
+        <v>133.631</v>
       </c>
       <c r="Q11">
-        <v>3.16916</v>
+        <v>150.677</v>
       </c>
       <c r="R11">
-        <v>1.18553</v>
+        <v>164.99</v>
       </c>
       <c r="S11">
-        <v>0.10234</v>
+        <v>254.785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENSMUSG00000055609</t>
+          <t>ENSMUSG00000000247</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hba-x</t>
+          <t>Lhx2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>chr11:32276399-32278116</t>
+          <t>chr2:38339280-38369733</t>
         </is>
       </c>
       <c r="D12">
-        <v>37.3918</v>
+        <v>5.24742</v>
       </c>
       <c r="E12">
-        <v>289.501</v>
+        <v>3.6129</v>
       </c>
       <c r="F12">
-        <v>27.0503</v>
+        <v>5.34213</v>
       </c>
       <c r="G12">
-        <v>80.57769999999999</v>
+        <v>7.68694</v>
       </c>
       <c r="H12">
-        <v>5.01291</v>
+        <v>48.7736</v>
       </c>
       <c r="I12">
-        <v>11.0448</v>
+        <v>3.03886</v>
       </c>
       <c r="J12">
-        <v>8.42681</v>
+        <v>3.96815</v>
       </c>
       <c r="K12">
-        <v>2.34314</v>
+        <v>3.14521</v>
       </c>
       <c r="L12">
-        <v>1369.86</v>
+        <v>54.334</v>
       </c>
       <c r="M12">
-        <v>1021.83</v>
+        <v>57.3802</v>
       </c>
       <c r="N12">
-        <v>2003.07</v>
+        <v>95.4943</v>
       </c>
       <c r="O12">
-        <v>1590.96</v>
+        <v>86.50230000000001</v>
       </c>
       <c r="P12">
-        <v>1269.92</v>
+        <v>120.479</v>
       </c>
       <c r="Q12">
-        <v>1380.82</v>
+        <v>97.3383</v>
       </c>
       <c r="R12">
-        <v>558.727</v>
+        <v>116.715</v>
       </c>
       <c r="S12">
-        <v>576.841</v>
+        <v>130.794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052187</t>
+          <t>ENSMUSG00000027684</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hbb-y</t>
+          <t>Mecom</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chr7:103851748-103853216</t>
+          <t>chr3:29951295-30509822</t>
         </is>
       </c>
       <c r="D13">
-        <v>36.7092</v>
+        <v>5.53952</v>
       </c>
       <c r="E13">
-        <v>301.978</v>
+        <v>3.98064</v>
       </c>
       <c r="F13">
-        <v>35.3067</v>
+        <v>5.98291</v>
       </c>
       <c r="G13">
-        <v>114.812</v>
+        <v>7.13484</v>
       </c>
       <c r="H13">
-        <v>10.9284</v>
+        <v>20.5859</v>
       </c>
       <c r="I13">
-        <v>21.0864</v>
+        <v>4.96762</v>
       </c>
       <c r="J13">
-        <v>28.9754</v>
+        <v>2.52903</v>
       </c>
       <c r="K13">
-        <v>10.7026</v>
+        <v>3.16926</v>
       </c>
       <c r="L13">
-        <v>1363.5</v>
+        <v>44.51</v>
       </c>
       <c r="M13">
-        <v>1113.56</v>
+        <v>58.1403</v>
       </c>
       <c r="N13">
-        <v>2282.04</v>
+        <v>75.12649999999999</v>
       </c>
       <c r="O13">
-        <v>2387.72</v>
+        <v>76.8262</v>
       </c>
       <c r="P13">
-        <v>2372.75</v>
+        <v>103.045</v>
       </c>
       <c r="Q13">
-        <v>2565.42</v>
+        <v>90.21210000000001</v>
       </c>
       <c r="R13">
-        <v>2418.92</v>
+        <v>122.18</v>
       </c>
       <c r="S13">
-        <v>2098.1</v>
+        <v>153.327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENSMUSG00000044243</t>
+          <t>ENSMUSG00000054690</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bhlha9</t>
+          <t>Emcn</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chr11:76672469-76673676</t>
+          <t>chr3:137341066-137432185</t>
         </is>
       </c>
       <c r="D14">
-        <v>71.4362</v>
+        <v>0.63884</v>
       </c>
       <c r="E14">
-        <v>52.4075</v>
+        <v>0.18223</v>
       </c>
       <c r="F14">
-        <v>110.345</v>
+        <v>0.102934</v>
       </c>
       <c r="G14">
-        <v>77.5149</v>
+        <v>0.601773</v>
       </c>
       <c r="H14">
-        <v>84.8292</v>
+        <v>0.283848</v>
       </c>
       <c r="I14">
-        <v>119.187</v>
+        <v>0.162964</v>
       </c>
       <c r="J14">
-        <v>92.9866</v>
+        <v>0.375084</v>
       </c>
       <c r="K14">
-        <v>77.4109</v>
+        <v>0.220114</v>
       </c>
       <c r="L14">
-        <v>0.240048</v>
+        <v>18.7839</v>
       </c>
       <c r="M14">
-        <v>0.08319650000000001</v>
+        <v>15.5636</v>
       </c>
       <c r="N14">
-        <v>1.56066</v>
+        <v>9.96247</v>
       </c>
       <c r="O14">
-        <v>0.150374</v>
+        <v>13.7774</v>
       </c>
       <c r="P14">
-        <v>1.99052</v>
+        <v>15.5067</v>
       </c>
       <c r="Q14">
-        <v>1.41857</v>
+        <v>20.4193</v>
       </c>
       <c r="R14">
-        <v>0.121294</v>
+        <v>21.867</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>19.5506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENSMUSG00000045394</t>
+          <t>ENSMUSG00000006574</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Epcam</t>
+          <t>Slc4a1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>chr17:87635978-87651106</t>
+          <t>chr11:102348823-102365280</t>
         </is>
       </c>
       <c r="D15">
-        <v>107.982</v>
+        <v>0.243459</v>
       </c>
       <c r="E15">
-        <v>104.975</v>
+        <v>4.0371</v>
       </c>
       <c r="F15">
-        <v>183.641</v>
+        <v>0.322698</v>
       </c>
       <c r="G15">
-        <v>185.62</v>
+        <v>1.14568</v>
       </c>
       <c r="H15">
-        <v>120.866</v>
+        <v>0.0776553</v>
       </c>
       <c r="I15">
-        <v>161.002</v>
+        <v>0.138054</v>
       </c>
       <c r="J15">
-        <v>129.542</v>
+        <v>0.114136</v>
       </c>
       <c r="K15">
-        <v>144.102</v>
+        <v>0.0248432</v>
       </c>
       <c r="L15">
-        <v>0.514853</v>
+        <v>16.0806</v>
       </c>
       <c r="M15">
-        <v>0.566083</v>
+        <v>17.3881</v>
       </c>
       <c r="N15">
-        <v>2.59101</v>
+        <v>23.1293</v>
       </c>
       <c r="O15">
-        <v>1.83875</v>
+        <v>26.3967</v>
       </c>
       <c r="P15">
-        <v>3.74213</v>
+        <v>17.7939</v>
       </c>
       <c r="Q15">
-        <v>2.3381</v>
+        <v>23.3973</v>
       </c>
       <c r="R15">
-        <v>1.57884</v>
+        <v>5.1619</v>
       </c>
       <c r="S15">
-        <v>0.795044</v>
+        <v>11.8271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000303</t>
+          <t>ENSMUSG00000062960</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cdh1</t>
+          <t>Kdr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>chr8:106603350-106670246</t>
+          <t>chr5:75932826-75978458</t>
         </is>
       </c>
       <c r="D16">
-        <v>86.998</v>
+        <v>1.19256</v>
       </c>
       <c r="E16">
-        <v>67.789</v>
+        <v>0.926697</v>
       </c>
       <c r="F16">
-        <v>122.704</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>101.554</v>
+        <v>0.226836</v>
       </c>
       <c r="H16">
-        <v>61.3073</v>
+        <v>0.107241</v>
       </c>
       <c r="I16">
-        <v>92.50239999999999</v>
+        <v>0.0192577</v>
       </c>
       <c r="J16">
-        <v>80.4327</v>
+        <v>0.181389</v>
       </c>
       <c r="K16">
-        <v>75.20050000000001</v>
+        <v>0.0571804</v>
       </c>
       <c r="L16">
-        <v>0.327019</v>
+        <v>23.3358</v>
       </c>
       <c r="M16">
-        <v>0.328685</v>
+        <v>20.7227</v>
       </c>
       <c r="N16">
-        <v>1.52342</v>
+        <v>10.949</v>
       </c>
       <c r="O16">
-        <v>0.423371</v>
+        <v>10.0903</v>
       </c>
       <c r="P16">
-        <v>1.28057</v>
+        <v>12.9715</v>
       </c>
       <c r="Q16">
-        <v>0.883467</v>
+        <v>12.4696</v>
       </c>
       <c r="R16">
-        <v>0.239636</v>
+        <v>12.8571</v>
       </c>
       <c r="S16">
-        <v>0.0523025</v>
+        <v>12.9656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025856</t>
+          <t>ENSMUSG00000073940</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pdgfa</t>
+          <t>Hbb-bt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chr5:138976013-138997370</t>
+          <t>chr7:103812523-103813996</t>
         </is>
       </c>
       <c r="D17">
-        <v>155.063</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>199.632</v>
+        <v>2.60301</v>
       </c>
       <c r="F17">
-        <v>163.3</v>
+        <v>0.298042</v>
       </c>
       <c r="G17">
-        <v>174.534</v>
+        <v>0.955744</v>
       </c>
       <c r="H17">
-        <v>87.23699999999999</v>
+        <v>0.200821</v>
       </c>
       <c r="I17">
-        <v>150.477</v>
+        <v>0.4057</v>
       </c>
       <c r="J17">
-        <v>94.63809999999999</v>
+        <v>1.68664</v>
       </c>
       <c r="K17">
-        <v>117.207</v>
+        <v>0.0803075</v>
       </c>
       <c r="L17">
-        <v>0.829052</v>
+        <v>1.54554</v>
       </c>
       <c r="M17">
-        <v>0.810429</v>
+        <v>1.49984</v>
       </c>
       <c r="N17">
-        <v>2.30928</v>
+        <v>16.7172</v>
       </c>
       <c r="O17">
-        <v>1.62656</v>
+        <v>21.5152</v>
       </c>
       <c r="P17">
-        <v>2.67971</v>
+        <v>37.6486</v>
       </c>
       <c r="Q17">
-        <v>2.39691</v>
+        <v>39.6651</v>
       </c>
       <c r="R17">
-        <v>1.62097</v>
+        <v>119.953</v>
       </c>
       <c r="S17">
-        <v>1.67305</v>
+        <v>34.2769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038560</t>
+          <t>ENSMUSG00000026814</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sp6</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chr11:97013393-97024734</t>
+          <t>chr2:32646594-32682669</t>
         </is>
       </c>
       <c r="D18">
-        <v>112.653</v>
+        <v>0.750313</v>
       </c>
       <c r="E18">
-        <v>113.896</v>
+        <v>0.355549</v>
       </c>
       <c r="F18">
-        <v>118.793</v>
+        <v>0.061529</v>
       </c>
       <c r="G18">
-        <v>104.646</v>
+        <v>0.509548</v>
       </c>
       <c r="H18">
-        <v>79.79949999999999</v>
+        <v>0.397221</v>
       </c>
       <c r="I18">
-        <v>130.675</v>
+        <v>0.125</v>
       </c>
       <c r="J18">
-        <v>66.0752</v>
+        <v>0.367505</v>
       </c>
       <c r="K18">
-        <v>56.5873</v>
+        <v>0.120762</v>
       </c>
       <c r="L18">
-        <v>1.11022</v>
+        <v>12.2589</v>
       </c>
       <c r="M18">
-        <v>1.95482</v>
+        <v>12.4525</v>
       </c>
       <c r="N18">
-        <v>1.17276</v>
+        <v>14.2468</v>
       </c>
       <c r="O18">
-        <v>0.801864</v>
+        <v>12.1296</v>
       </c>
       <c r="P18">
-        <v>2.25807</v>
+        <v>16.8454</v>
       </c>
       <c r="Q18">
-        <v>0.931191</v>
+        <v>12.6816</v>
       </c>
       <c r="R18">
-        <v>0.092877</v>
+        <v>22.0178</v>
       </c>
       <c r="S18">
-        <v>0.191963</v>
+        <v>15.5171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENSMUSG00000069919</t>
+          <t>ENSMUSG00000030123</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hba-a1</t>
+          <t>Plxnd1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chr11:32283510-32284465</t>
+          <t>chr6:115954810-115995005</t>
         </is>
       </c>
       <c r="D19">
-        <v>7.54972</v>
+        <v>3.35454</v>
       </c>
       <c r="E19">
-        <v>44.2214</v>
+        <v>1.90544</v>
       </c>
       <c r="F19">
-        <v>7.29385</v>
+        <v>2.9539</v>
       </c>
       <c r="G19">
-        <v>16.0202</v>
+        <v>2.46291</v>
       </c>
       <c r="H19">
-        <v>3.08005</v>
+        <v>1.60214</v>
       </c>
       <c r="I19">
-        <v>3.42738</v>
+        <v>1.51323</v>
       </c>
       <c r="J19">
-        <v>10.8669</v>
+        <v>1.77957</v>
       </c>
       <c r="K19">
-        <v>1.69611</v>
+        <v>1.29627</v>
       </c>
       <c r="L19">
-        <v>239.117</v>
+        <v>37.1859</v>
       </c>
       <c r="M19">
-        <v>163.269</v>
+        <v>35.9576</v>
       </c>
       <c r="N19">
-        <v>441.317</v>
+        <v>31.6111</v>
       </c>
       <c r="O19">
-        <v>359.801</v>
+        <v>25.9093</v>
       </c>
       <c r="P19">
-        <v>538.467</v>
+        <v>44.3315</v>
       </c>
       <c r="Q19">
-        <v>392.447</v>
+        <v>32.2576</v>
       </c>
       <c r="R19">
-        <v>793.48</v>
+        <v>34.4674</v>
       </c>
       <c r="S19">
-        <v>391.882</v>
+        <v>32.1154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052217</t>
+          <t>ENSMUSG00000020717</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hbb-bh1</t>
+          <t>Pecam1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chr7:103841636-103843164</t>
+          <t>chr11:106654216-106750628</t>
         </is>
       </c>
       <c r="D20">
-        <v>33.047</v>
+        <v>1.05459</v>
       </c>
       <c r="E20">
-        <v>240.348</v>
+        <v>0.152969</v>
       </c>
       <c r="F20">
-        <v>22.217</v>
+        <v>0.361618</v>
       </c>
       <c r="G20">
-        <v>54.5293</v>
+        <v>0.409318</v>
       </c>
       <c r="H20">
-        <v>1.78487</v>
+        <v>0.262719</v>
       </c>
       <c r="I20">
-        <v>4.55959</v>
+        <v>0.365016</v>
       </c>
       <c r="J20">
-        <v>1.99472</v>
+        <v>0.82737</v>
       </c>
       <c r="K20">
-        <v>0.644687</v>
+        <v>0.17612</v>
       </c>
       <c r="L20">
-        <v>1259.15</v>
+        <v>14.9685</v>
       </c>
       <c r="M20">
-        <v>836.026</v>
+        <v>10.963</v>
       </c>
       <c r="N20">
-        <v>1328.48</v>
+        <v>13.8705</v>
       </c>
       <c r="O20">
-        <v>1041.84</v>
+        <v>12.3482</v>
       </c>
       <c r="P20">
-        <v>400.596</v>
+        <v>19.6184</v>
       </c>
       <c r="Q20">
-        <v>513.7430000000001</v>
+        <v>14.6819</v>
       </c>
       <c r="R20">
-        <v>70.0363</v>
+        <v>20.3346</v>
       </c>
       <c r="S20">
-        <v>151.851</v>
+        <v>19.4942</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047501</t>
+          <t>ENSMUSG00000054675</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cldn4</t>
+          <t>Tmem119</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chr5:134945118-134946934</t>
+          <t>chr5:113793728-113800516</t>
         </is>
       </c>
       <c r="D21">
-        <v>68.8998</v>
+        <v>6.87162</v>
       </c>
       <c r="E21">
-        <v>47.6598</v>
+        <v>2.40448</v>
       </c>
       <c r="F21">
-        <v>90.7242</v>
+        <v>7.75666</v>
       </c>
       <c r="G21">
-        <v>63.7912</v>
+        <v>5.96868</v>
       </c>
       <c r="H21">
-        <v>48.8795</v>
+        <v>38.5879</v>
       </c>
       <c r="I21">
-        <v>56.2561</v>
+        <v>4.24052</v>
       </c>
       <c r="J21">
-        <v>70.8218</v>
+        <v>3.5533</v>
       </c>
       <c r="K21">
-        <v>45.8862</v>
+        <v>2.34185</v>
       </c>
       <c r="L21">
-        <v>0.299151</v>
+        <v>34.3241</v>
       </c>
       <c r="M21">
-        <v>0.0276482</v>
+        <v>18.7962</v>
       </c>
       <c r="N21">
-        <v>1.02181</v>
+        <v>108.699</v>
       </c>
       <c r="O21">
-        <v>0.533045</v>
+        <v>84.6407</v>
       </c>
       <c r="P21">
-        <v>1.06693</v>
+        <v>139.826</v>
       </c>
       <c r="Q21">
-        <v>0.505097</v>
+        <v>106.211</v>
       </c>
       <c r="R21">
-        <v>0.120926</v>
+        <v>104.678</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>91.43040000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040728</t>
+          <t>ENSMUSG00000031673</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Esrp1</t>
+          <t>Cdh11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>chr4:11331932-11386783</t>
+          <t>chr8:102632094-102785642</t>
         </is>
       </c>
       <c r="D22">
-        <v>43.5837</v>
+        <v>3.52707</v>
       </c>
       <c r="E22">
-        <v>46.2627</v>
+        <v>2.72378</v>
       </c>
       <c r="F22">
-        <v>54.4084</v>
+        <v>6.56731</v>
       </c>
       <c r="G22">
-        <v>63.5675</v>
+        <v>10.4605</v>
       </c>
       <c r="H22">
-        <v>48.0509</v>
+        <v>44.332</v>
       </c>
       <c r="I22">
-        <v>71.05719999999999</v>
+        <v>5.0809</v>
       </c>
       <c r="J22">
-        <v>65.6246</v>
+        <v>5.49863</v>
       </c>
       <c r="K22">
-        <v>75.15219999999999</v>
+        <v>3.88905</v>
       </c>
       <c r="L22">
-        <v>0.09240130000000001</v>
+        <v>22.7681</v>
       </c>
       <c r="M22">
-        <v>0.546641</v>
+        <v>22.6994</v>
       </c>
       <c r="N22">
-        <v>0.75605</v>
+        <v>99.50620000000001</v>
       </c>
       <c r="O22">
-        <v>0.430967</v>
+        <v>104.331</v>
       </c>
       <c r="P22">
-        <v>1.03091</v>
+        <v>138.047</v>
       </c>
       <c r="Q22">
-        <v>0.791145</v>
+        <v>132.231</v>
       </c>
       <c r="R22">
-        <v>0.0791524</v>
+        <v>145.864</v>
       </c>
       <c r="S22">
-        <v>0.09982000000000001</v>
+        <v>165.599</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032013</t>
+          <t>ENSMUSG00000042607</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trim29</t>
+          <t>Asb4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>chr9:43310847-43336115</t>
+          <t>chr6:5383385-5433022</t>
         </is>
       </c>
       <c r="D23">
-        <v>20.4467</v>
+        <v>23.7054</v>
       </c>
       <c r="E23">
-        <v>15.2802</v>
+        <v>21.9741</v>
       </c>
       <c r="F23">
-        <v>76.2251</v>
+        <v>17.4596</v>
       </c>
       <c r="G23">
-        <v>53.0427</v>
+        <v>29.2858</v>
       </c>
       <c r="H23">
-        <v>58.7809</v>
+        <v>31.3117</v>
       </c>
       <c r="I23">
-        <v>63.6736</v>
+        <v>9.49578</v>
       </c>
       <c r="J23">
-        <v>101.433</v>
+        <v>1.06369</v>
       </c>
       <c r="K23">
-        <v>61.4103</v>
+        <v>1.87198</v>
       </c>
       <c r="L23">
-        <v>0.0264843</v>
+        <v>155.561</v>
       </c>
       <c r="M23">
-        <v>0.036716</v>
+        <v>160.526</v>
       </c>
       <c r="N23">
-        <v>0.863503</v>
+        <v>300.696</v>
       </c>
       <c r="O23">
-        <v>0.176967</v>
+        <v>231.324</v>
       </c>
       <c r="P23">
-        <v>1.41686</v>
+        <v>101.947</v>
       </c>
       <c r="Q23">
-        <v>0.670754</v>
+        <v>142.754</v>
       </c>
       <c r="R23">
-        <v>0.107058</v>
+        <v>29.7138</v>
       </c>
       <c r="S23">
-        <v>0.0423581</v>
+        <v>56.6617</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042367</t>
+          <t>ENSMUSG00000026586</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gjb3</t>
+          <t>Prrx1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>chr4:127325234-127330844</t>
+          <t>chr1:163245118-163313710</t>
         </is>
       </c>
       <c r="D24">
-        <v>78.032</v>
+        <v>8.914249999999999</v>
       </c>
       <c r="E24">
-        <v>65.06610000000001</v>
+        <v>8.2052</v>
       </c>
       <c r="F24">
-        <v>72.1981</v>
+        <v>9.320029999999999</v>
       </c>
       <c r="G24">
-        <v>56.4232</v>
+        <v>7.48059</v>
       </c>
       <c r="H24">
-        <v>49.1113</v>
+        <v>18.3804</v>
       </c>
       <c r="I24">
-        <v>60.504</v>
+        <v>5.65565</v>
       </c>
       <c r="J24">
-        <v>46.6392</v>
+        <v>2.96986</v>
       </c>
       <c r="K24">
-        <v>40.7253</v>
+        <v>3.17718</v>
       </c>
       <c r="L24">
-        <v>0.179148</v>
+        <v>65.7697</v>
       </c>
       <c r="M24">
-        <v>0.0618702</v>
+        <v>97.5562</v>
       </c>
       <c r="N24">
-        <v>1.16536</v>
+        <v>62.7423</v>
       </c>
       <c r="O24">
-        <v>0.450543</v>
+        <v>73.2611</v>
       </c>
       <c r="P24">
-        <v>1.3447</v>
+        <v>69.8592</v>
       </c>
       <c r="Q24">
-        <v>0.720395</v>
+        <v>93.6591</v>
       </c>
       <c r="R24">
-        <v>0.0584049</v>
+        <v>95.2774</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>115.092</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023391</t>
+          <t>ENSMUSG00000001819</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dlx2</t>
+          <t>Hoxd13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>chr2:71543407-71546754</t>
+          <t>chr2:74668309-74671599</t>
         </is>
       </c>
       <c r="D25">
-        <v>63.7087</v>
+        <v>0.342799</v>
       </c>
       <c r="E25">
-        <v>59.2167</v>
+        <v>0.298775</v>
       </c>
       <c r="F25">
-        <v>79.8103</v>
+        <v>6.94754</v>
       </c>
       <c r="G25">
-        <v>74.7826</v>
+        <v>12.267</v>
       </c>
       <c r="H25">
-        <v>73.1861</v>
+        <v>94.6536</v>
       </c>
       <c r="I25">
-        <v>100.082</v>
+        <v>13.1634</v>
       </c>
       <c r="J25">
-        <v>101.931</v>
+        <v>5.61099</v>
       </c>
       <c r="K25">
-        <v>74.51390000000001</v>
+        <v>8.66283</v>
       </c>
       <c r="L25">
-        <v>0.307546</v>
+        <v>3.07766</v>
       </c>
       <c r="M25">
-        <v>0.182726</v>
+        <v>2.70963</v>
       </c>
       <c r="N25">
-        <v>1.18236</v>
+        <v>129.298</v>
       </c>
       <c r="O25">
-        <v>0.513754</v>
+        <v>265.053</v>
       </c>
       <c r="P25">
-        <v>2.20942</v>
+        <v>318.03</v>
       </c>
       <c r="Q25">
-        <v>1.50836</v>
+        <v>376.63</v>
       </c>
       <c r="R25">
-        <v>2.7232</v>
+        <v>202.223</v>
       </c>
       <c r="S25">
-        <v>0.726108</v>
+        <v>395.838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054889</t>
+          <t>ENSMUSG00000001240</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dsp</t>
+          <t>Ramp2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chr13:38151293-38198577</t>
+          <t>chr11:101246027-101248250</t>
         </is>
       </c>
       <c r="D26">
-        <v>29.7549</v>
+        <v>1.64551</v>
       </c>
       <c r="E26">
-        <v>25.151</v>
+        <v>0.376179</v>
       </c>
       <c r="F26">
-        <v>65.5333</v>
+        <v>0.7556850000000001</v>
       </c>
       <c r="G26">
-        <v>64.5604</v>
+        <v>0.459203</v>
       </c>
       <c r="H26">
-        <v>90.71469999999999</v>
+        <v>1.99858</v>
       </c>
       <c r="I26">
-        <v>97.3278</v>
+        <v>0.253798</v>
       </c>
       <c r="J26">
-        <v>145.174</v>
+        <v>0.404974</v>
       </c>
       <c r="K26">
-        <v>150.046</v>
+        <v>0.133151</v>
       </c>
       <c r="L26">
-        <v>1.89897</v>
+        <v>17.3776</v>
       </c>
       <c r="M26">
-        <v>1.00083</v>
+        <v>11.5275</v>
       </c>
       <c r="N26">
-        <v>0.937934</v>
+        <v>16.1616</v>
       </c>
       <c r="O26">
-        <v>0.3737</v>
+        <v>14.9668</v>
       </c>
       <c r="P26">
-        <v>1.86153</v>
+        <v>22.0348</v>
       </c>
       <c r="Q26">
-        <v>1.37146</v>
+        <v>14.8693</v>
       </c>
       <c r="R26">
-        <v>0.768999</v>
+        <v>21.4446</v>
       </c>
       <c r="S26">
-        <v>0.469611</v>
+        <v>14.0799</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031995</t>
+          <t>ENSMUSG00000000938</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>St14</t>
+          <t>Hoxa10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chr9:31089401-31131853</t>
+          <t>chr6:52231196-52240854</t>
         </is>
       </c>
       <c r="D27">
-        <v>39.0718</v>
+        <v>1.1271</v>
       </c>
       <c r="E27">
-        <v>29.6835</v>
+        <v>0.601703</v>
       </c>
       <c r="F27">
-        <v>116.495</v>
+        <v>7.99548</v>
       </c>
       <c r="G27">
-        <v>85.26600000000001</v>
+        <v>12.5539</v>
       </c>
       <c r="H27">
-        <v>42.4528</v>
+        <v>22.0701</v>
       </c>
       <c r="I27">
-        <v>64.27</v>
+        <v>5.31727</v>
       </c>
       <c r="J27">
-        <v>45.6033</v>
+        <v>1.53059</v>
       </c>
       <c r="K27">
-        <v>31.9959</v>
+        <v>1.94489</v>
       </c>
       <c r="L27">
-        <v>0.11113</v>
+        <v>18.9675</v>
       </c>
       <c r="M27">
-        <v>0.107844</v>
+        <v>17.1634</v>
       </c>
       <c r="N27">
-        <v>1.19052</v>
+        <v>83.22920000000001</v>
       </c>
       <c r="O27">
-        <v>0.705439</v>
+        <v>109.312</v>
       </c>
       <c r="P27">
-        <v>1.20094</v>
+        <v>65.3383</v>
       </c>
       <c r="Q27">
-        <v>0.544143</v>
+        <v>95.56100000000001</v>
       </c>
       <c r="R27">
-        <v>0.112306</v>
+        <v>59.206</v>
       </c>
       <c r="S27">
-        <v>0.07109500000000001</v>
+        <v>68.8023</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENSMUSG00000018569</t>
+          <t>ENSMUSG00000042821</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cldn7</t>
+          <t>Snai1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chr11:69964778-69967885</t>
+          <t>chr2:167538194-167542814</t>
         </is>
       </c>
       <c r="D28">
-        <v>69.51130000000001</v>
+        <v>11.1844</v>
       </c>
       <c r="E28">
-        <v>63.4625</v>
+        <v>7.04789</v>
       </c>
       <c r="F28">
-        <v>80.00539999999999</v>
+        <v>3.05905</v>
       </c>
       <c r="G28">
-        <v>79.5248</v>
+        <v>3.93766</v>
       </c>
       <c r="H28">
-        <v>38.6133</v>
+        <v>8.426220000000001</v>
       </c>
       <c r="I28">
-        <v>68.1788</v>
+        <v>1.05567</v>
       </c>
       <c r="J28">
-        <v>39.807</v>
+        <v>1.3715</v>
       </c>
       <c r="K28">
-        <v>43.1919</v>
+        <v>0.557248</v>
       </c>
       <c r="L28">
-        <v>0.108517</v>
+        <v>47.1874</v>
       </c>
       <c r="M28">
-        <v>0.454876</v>
+        <v>56.8066</v>
       </c>
       <c r="N28">
-        <v>0.883254</v>
+        <v>58.0863</v>
       </c>
       <c r="O28">
-        <v>0.586997</v>
+        <v>43.556</v>
       </c>
       <c r="P28">
-        <v>0.947815</v>
+        <v>23.7861</v>
       </c>
       <c r="Q28">
-        <v>0.99792</v>
+        <v>37.7616</v>
       </c>
       <c r="R28">
-        <v>0.442676</v>
+        <v>40.1679</v>
       </c>
       <c r="S28">
-        <v>0.39575</v>
+        <v>25.2639</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022382</t>
+          <t>ENSMUSG00000025270</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wnt7b</t>
+          <t>Alas2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>chr15:85535436-85582473</t>
+          <t>chrX:150547374-150570638</t>
         </is>
       </c>
       <c r="D29">
-        <v>12.1875</v>
+        <v>0.334284</v>
       </c>
       <c r="E29">
-        <v>9.45965</v>
+        <v>3.18684</v>
       </c>
       <c r="F29">
-        <v>52.0168</v>
+        <v>0.184569</v>
       </c>
       <c r="G29">
-        <v>38.9484</v>
+        <v>0.89453</v>
       </c>
       <c r="H29">
-        <v>73.3886</v>
+        <v>0.0559635</v>
       </c>
       <c r="I29">
-        <v>71.342</v>
+        <v>0.24119</v>
       </c>
       <c r="J29">
-        <v>161.432</v>
+        <v>0.169006</v>
       </c>
       <c r="K29">
-        <v>100.208</v>
+        <v>0.0298394</v>
       </c>
       <c r="L29">
-        <v>0.110596</v>
+        <v>12.0674</v>
       </c>
       <c r="M29">
-        <v>0.0398323</v>
+        <v>11.3918</v>
       </c>
       <c r="N29">
-        <v>0.924023</v>
+        <v>14.8311</v>
       </c>
       <c r="O29">
-        <v>0.290369</v>
+        <v>17.7822</v>
       </c>
       <c r="P29">
-        <v>2.04709</v>
+        <v>14.6258</v>
       </c>
       <c r="Q29">
-        <v>1.15121</v>
+        <v>16.2461</v>
       </c>
       <c r="R29">
-        <v>0.29275</v>
+        <v>12.1813</v>
       </c>
       <c r="S29">
-        <v>0.110902</v>
+        <v>9.883749999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040680</t>
+          <t>ENSMUSG00000050368</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kremen2</t>
+          <t>Hoxd10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>chr17:23741196-23745833</t>
+          <t>chr2:74691923-74695105</t>
         </is>
       </c>
       <c r="D30">
-        <v>23.4543</v>
+        <v>2.81223</v>
       </c>
       <c r="E30">
-        <v>21.2226</v>
+        <v>1.30724</v>
       </c>
       <c r="F30">
-        <v>56.1558</v>
+        <v>4.80734</v>
       </c>
       <c r="G30">
-        <v>42.6194</v>
+        <v>6.4747</v>
       </c>
       <c r="H30">
-        <v>31.3875</v>
+        <v>10.1646</v>
       </c>
       <c r="I30">
-        <v>37.1589</v>
+        <v>1.69616</v>
       </c>
       <c r="J30">
-        <v>51.2081</v>
+        <v>0.6529239999999999</v>
       </c>
       <c r="K30">
-        <v>45.8191</v>
+        <v>0.932646</v>
       </c>
       <c r="L30">
-        <v>0.0341189</v>
+        <v>38.2914</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>34.6708</v>
       </c>
       <c r="N30">
-        <v>0.54297</v>
+        <v>50.9047</v>
       </c>
       <c r="O30">
-        <v>0.398968</v>
+        <v>64.0321</v>
       </c>
       <c r="P30">
-        <v>0.675359</v>
+        <v>28.4871</v>
       </c>
       <c r="Q30">
-        <v>0.259234</v>
+        <v>50.375</v>
       </c>
       <c r="R30">
-        <v>0.10344</v>
+        <v>11.9717</v>
       </c>
       <c r="S30">
-        <v>0.109137</v>
+        <v>34.3529</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ENSMUSG00000017754</t>
+          <t>ENSMUSG00000021806</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pltp</t>
+          <t>Nid2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chr2:164839517-164857711</t>
+          <t>chr14:19751264-19811787</t>
         </is>
       </c>
       <c r="D31">
-        <v>60.9885</v>
+        <v>9.603540000000001</v>
       </c>
       <c r="E31">
-        <v>43.1892</v>
+        <v>6.80089</v>
       </c>
       <c r="F31">
-        <v>88.5979</v>
+        <v>3.55603</v>
       </c>
       <c r="G31">
-        <v>65.4089</v>
+        <v>4.03779</v>
       </c>
       <c r="H31">
-        <v>77.88290000000001</v>
+        <v>16.5153</v>
       </c>
       <c r="I31">
-        <v>72.6618</v>
+        <v>2.05741</v>
       </c>
       <c r="J31">
-        <v>109.955</v>
+        <v>1.20835</v>
       </c>
       <c r="K31">
-        <v>89.0205</v>
+        <v>1.0949</v>
       </c>
       <c r="L31">
-        <v>0.725411</v>
+        <v>56.4899</v>
       </c>
       <c r="M31">
-        <v>0.191271</v>
+        <v>40.4026</v>
       </c>
       <c r="N31">
-        <v>1.3873</v>
+        <v>48.2048</v>
       </c>
       <c r="O31">
-        <v>0.784008</v>
+        <v>37.9186</v>
       </c>
       <c r="P31">
-        <v>3.76125</v>
+        <v>60.9972</v>
       </c>
       <c r="Q31">
-        <v>2.09787</v>
+        <v>40.7582</v>
       </c>
       <c r="R31">
-        <v>2.72707</v>
+        <v>42.4141</v>
       </c>
       <c r="S31">
-        <v>1.78674</v>
+        <v>43.7446</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENSMUSG00000030093</t>
+          <t>ENSMUSG00000028339</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wnt7a</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>chr6:91363980-91411363</t>
+          <t>chr4:47208160-47313167</t>
         </is>
       </c>
       <c r="D32">
-        <v>52.5138</v>
+        <v>0.250237</v>
       </c>
       <c r="E32">
-        <v>55.3977</v>
+        <v>0.155094</v>
       </c>
       <c r="F32">
-        <v>38.3333</v>
+        <v>0.121533</v>
       </c>
       <c r="G32">
-        <v>28.0307</v>
+        <v>0.696389</v>
       </c>
       <c r="H32">
-        <v>23.0437</v>
+        <v>0.218376</v>
       </c>
       <c r="I32">
-        <v>35.552</v>
+        <v>0.293345</v>
       </c>
       <c r="J32">
-        <v>47.5784</v>
+        <v>0.644944</v>
       </c>
       <c r="K32">
-        <v>26.1813</v>
+        <v>0.261472</v>
       </c>
       <c r="L32">
-        <v>0.06850680000000001</v>
+        <v>6.65944</v>
       </c>
       <c r="M32">
-        <v>0.0791442</v>
+        <v>6.90417</v>
       </c>
       <c r="N32">
-        <v>0.664768</v>
+        <v>12.3766</v>
       </c>
       <c r="O32">
-        <v>0.05722</v>
+        <v>9.69</v>
       </c>
       <c r="P32">
-        <v>0.452014</v>
+        <v>21.2104</v>
       </c>
       <c r="Q32">
-        <v>0.231338</v>
+        <v>12.4077</v>
       </c>
       <c r="R32">
-        <v>0.0230772</v>
+        <v>22.8944</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>16.4451</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENSMUSG00000057092</t>
+          <t>ENSMUSG00000039476</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fxyd3</t>
+          <t>Prrx2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chr7:31068171-31076704</t>
+          <t>chr2:30834971-30881251</t>
         </is>
       </c>
       <c r="D33">
-        <v>10.7502</v>
+        <v>25.0394</v>
       </c>
       <c r="E33">
-        <v>7.17848</v>
+        <v>19.2087</v>
       </c>
       <c r="F33">
-        <v>50.1551</v>
+        <v>12.0713</v>
       </c>
       <c r="G33">
-        <v>66.1229</v>
+        <v>14.7638</v>
       </c>
       <c r="H33">
-        <v>37.4014</v>
+        <v>63.9753</v>
       </c>
       <c r="I33">
-        <v>59.3514</v>
+        <v>6.42309</v>
       </c>
       <c r="J33">
-        <v>38.2068</v>
+        <v>8.84742</v>
       </c>
       <c r="K33">
-        <v>36.5868</v>
+        <v>5.42925</v>
       </c>
       <c r="L33">
-        <v>0.105898</v>
+        <v>95.1964</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>83.3216</v>
       </c>
       <c r="N33">
-        <v>0.255339</v>
+        <v>145.361</v>
       </c>
       <c r="O33">
-        <v>0.491619</v>
+        <v>114.606</v>
       </c>
       <c r="P33">
-        <v>0.439879</v>
+        <v>187.045</v>
       </c>
       <c r="Q33">
-        <v>0.285397</v>
+        <v>138.681</v>
       </c>
       <c r="R33">
-        <v>0.012647</v>
+        <v>215.057</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>167.986</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051397</t>
+          <t>ENSMUSG00000035165</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tacstd2</t>
+          <t>Kcne3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chr6:67534061-67535796</t>
+          <t>chr7:100176678-100184869</t>
         </is>
       </c>
       <c r="D34">
-        <v>4.02282</v>
+        <v>0.236102</v>
       </c>
       <c r="E34">
-        <v>2.93608</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>53.5381</v>
+        <v>0.150355</v>
       </c>
       <c r="G34">
-        <v>46.2125</v>
+        <v>0.322037</v>
       </c>
       <c r="H34">
-        <v>51.3039</v>
+        <v>0.069744</v>
       </c>
       <c r="I34">
-        <v>56.9099</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>82.7135</v>
+        <v>0.0398838</v>
       </c>
       <c r="K34">
-        <v>63.9403</v>
+        <v>0.172104</v>
       </c>
       <c r="L34">
-        <v>0.0208745</v>
+        <v>10.7655</v>
       </c>
       <c r="M34">
-        <v>0.0289389</v>
+        <v>8.831659999999999</v>
       </c>
       <c r="N34">
-        <v>0.599576</v>
+        <v>9.854369999999999</v>
       </c>
       <c r="O34">
-        <v>0.244095</v>
+        <v>8.52871</v>
       </c>
       <c r="P34">
-        <v>0.848725</v>
+        <v>10.4586</v>
       </c>
       <c r="Q34">
-        <v>0.352452</v>
+        <v>12.2073</v>
       </c>
       <c r="R34">
-        <v>0.063286</v>
+        <v>9.5137</v>
       </c>
       <c r="S34">
-        <v>0.033386</v>
+        <v>10.5814</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENSMUSG00000048562</t>
+          <t>ENSMUSG00000035799</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sp8</t>
+          <t>Twist1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>chr12:118846328-118852576</t>
+          <t>chr12:33957670-33959829</t>
         </is>
       </c>
       <c r="D35">
-        <v>49.676</v>
+        <v>22.7432</v>
       </c>
       <c r="E35">
-        <v>49.7447</v>
+        <v>16.9819</v>
       </c>
       <c r="F35">
-        <v>50.4009</v>
+        <v>7.89359</v>
       </c>
       <c r="G35">
-        <v>49.5541</v>
+        <v>9.97377</v>
       </c>
       <c r="H35">
-        <v>22.3683</v>
+        <v>55.2612</v>
       </c>
       <c r="I35">
-        <v>43.7082</v>
+        <v>7.67326</v>
       </c>
       <c r="J35">
-        <v>27.5043</v>
+        <v>8.05707</v>
       </c>
       <c r="K35">
-        <v>33.2593</v>
+        <v>6.79693</v>
       </c>
       <c r="L35">
-        <v>0.113231</v>
+        <v>125.359</v>
       </c>
       <c r="M35">
-        <v>0.112124</v>
+        <v>126.911</v>
       </c>
       <c r="N35">
-        <v>0.781029</v>
+        <v>87.02249999999999</v>
       </c>
       <c r="O35">
-        <v>0.28374</v>
+        <v>92.6091</v>
       </c>
       <c r="P35">
-        <v>0.750358</v>
+        <v>130.892</v>
       </c>
       <c r="Q35">
-        <v>0.751068</v>
+        <v>109.83</v>
       </c>
       <c r="R35">
-        <v>0.0408669</v>
+        <v>182.822</v>
       </c>
       <c r="S35">
-        <v>0.1423</v>
+        <v>144.563</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENSMUSG00000015647</t>
+          <t>ENSMUSG00000031486</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lama5</t>
+          <t>Adgra2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>chr2:180176372-180225859</t>
+          <t>chr8:27085582-27123436</t>
         </is>
       </c>
       <c r="D36">
-        <v>43.3508</v>
+        <v>5.46698</v>
       </c>
       <c r="E36">
-        <v>45.2229</v>
+        <v>3.74474</v>
       </c>
       <c r="F36">
-        <v>56.2322</v>
+        <v>1.5872</v>
       </c>
       <c r="G36">
-        <v>69.5459</v>
+        <v>2.7707</v>
       </c>
       <c r="H36">
-        <v>64.4087</v>
+        <v>7.5674</v>
       </c>
       <c r="I36">
-        <v>81.1092</v>
+        <v>1.29741</v>
       </c>
       <c r="J36">
-        <v>69.2295</v>
+        <v>0.799219</v>
       </c>
       <c r="K36">
-        <v>101.644</v>
+        <v>0.773344</v>
       </c>
       <c r="L36">
-        <v>1.10038</v>
+        <v>30.1955</v>
       </c>
       <c r="M36">
-        <v>1.37559</v>
+        <v>28.177</v>
       </c>
       <c r="N36">
-        <v>1.0542</v>
+        <v>25.8491</v>
       </c>
       <c r="O36">
-        <v>0.977531</v>
+        <v>26.1133</v>
       </c>
       <c r="P36">
-        <v>2.58612</v>
+        <v>32.6559</v>
       </c>
       <c r="Q36">
-        <v>1.47667</v>
+        <v>27.8379</v>
       </c>
       <c r="R36">
-        <v>0.899904</v>
+        <v>33.3182</v>
       </c>
       <c r="S36">
-        <v>1.36826</v>
+        <v>29.4133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENSMUSG00000002799</t>
+          <t>ENSMUSG00000032035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jag2</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chr12:112907818-112929776</t>
+          <t>chr9:32696021-32757820</t>
         </is>
       </c>
       <c r="D37">
-        <v>48.8115</v>
+        <v>2.83166</v>
       </c>
       <c r="E37">
-        <v>56.6199</v>
+        <v>1.83033</v>
       </c>
       <c r="F37">
-        <v>70.2803</v>
+        <v>1.46559</v>
       </c>
       <c r="G37">
-        <v>80.87130000000001</v>
+        <v>0.978866</v>
       </c>
       <c r="H37">
-        <v>53.2527</v>
+        <v>3.29662</v>
       </c>
       <c r="I37">
-        <v>77.5647</v>
+        <v>1.12549</v>
       </c>
       <c r="J37">
-        <v>68.2826</v>
+        <v>0.951275</v>
       </c>
       <c r="K37">
-        <v>80.6559</v>
+        <v>0.589025</v>
       </c>
       <c r="L37">
-        <v>0.786862</v>
+        <v>28.1822</v>
       </c>
       <c r="M37">
-        <v>1.05488</v>
+        <v>22.4902</v>
       </c>
       <c r="N37">
-        <v>1.47311</v>
+        <v>15.7661</v>
       </c>
       <c r="O37">
-        <v>1.77358</v>
+        <v>16.1138</v>
       </c>
       <c r="P37">
-        <v>2.06497</v>
+        <v>24.022</v>
       </c>
       <c r="Q37">
-        <v>1.75908</v>
+        <v>21.4016</v>
       </c>
       <c r="R37">
-        <v>1.32043</v>
+        <v>22.2224</v>
       </c>
       <c r="S37">
-        <v>1.2706</v>
+        <v>24.8608</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001507</t>
+          <t>ENSMUSG00000041378</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Itga3</t>
+          <t>Cldn5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>chr11:95044473-95076801</t>
+          <t>chr16:18776846-18778262</t>
         </is>
       </c>
       <c r="D38">
-        <v>114.493</v>
+        <v>0.841552</v>
       </c>
       <c r="E38">
-        <v>100.58</v>
+        <v>0.279419</v>
       </c>
       <c r="F38">
-        <v>93.3182</v>
+        <v>0.0986456</v>
       </c>
       <c r="G38">
-        <v>77.8737</v>
+        <v>0.0790829</v>
       </c>
       <c r="H38">
-        <v>64.6769</v>
+        <v>0.174478</v>
       </c>
       <c r="I38">
-        <v>81.2561</v>
+        <v>0.0402835</v>
       </c>
       <c r="J38">
-        <v>75.1315</v>
+        <v>0.183174</v>
       </c>
       <c r="K38">
-        <v>70.4495</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>2.56115</v>
+        <v>16.9832</v>
       </c>
       <c r="M38">
-        <v>2.08138</v>
+        <v>10.1766</v>
       </c>
       <c r="N38">
-        <v>2.16316</v>
+        <v>9.3916</v>
       </c>
       <c r="O38">
-        <v>1.45932</v>
+        <v>6.10988</v>
       </c>
       <c r="P38">
-        <v>3.22423</v>
+        <v>14.6137</v>
       </c>
       <c r="Q38">
-        <v>1.49702</v>
+        <v>7.73017</v>
       </c>
       <c r="R38">
-        <v>2.03151</v>
+        <v>10.6493</v>
       </c>
       <c r="S38">
-        <v>0.990215</v>
+        <v>7.97691</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041782</t>
+          <t>ENSMUSG00000018263</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lad1</t>
+          <t>Tbx5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>chr1:135818597-135833342</t>
+          <t>chr5:119832667-119885219</t>
         </is>
       </c>
       <c r="D39">
-        <v>56.8489</v>
+        <v>4.16659</v>
       </c>
       <c r="E39">
-        <v>40.6498</v>
+        <v>3.55781</v>
       </c>
       <c r="F39">
-        <v>70.6345</v>
+        <v>3.10368</v>
       </c>
       <c r="G39">
-        <v>45.8327</v>
+        <v>3.06543</v>
       </c>
       <c r="H39">
-        <v>37.0514</v>
+        <v>7.89637</v>
       </c>
       <c r="I39">
-        <v>40.2701</v>
+        <v>2.08868</v>
       </c>
       <c r="J39">
-        <v>52.5904</v>
+        <v>0.937756</v>
       </c>
       <c r="K39">
-        <v>32.0289</v>
+        <v>1.17469</v>
       </c>
       <c r="L39">
-        <v>1.07696</v>
+        <v>18.4938</v>
       </c>
       <c r="M39">
-        <v>1.19106</v>
+        <v>31.4466</v>
       </c>
       <c r="N39">
-        <v>1.07088</v>
+        <v>41.3183</v>
       </c>
       <c r="O39">
-        <v>0.444709</v>
+        <v>38.3128</v>
       </c>
       <c r="P39">
-        <v>0.983988</v>
+        <v>27.1425</v>
       </c>
       <c r="Q39">
-        <v>0.510778</v>
+        <v>31.5113</v>
       </c>
       <c r="R39">
-        <v>0.293488</v>
+        <v>40.5958</v>
       </c>
       <c r="S39">
-        <v>0.135474</v>
+        <v>35.7004</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENSMUSG00000035557</t>
+          <t>ENSMUSG00000001946</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Krt17</t>
+          <t>Esam</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chr11:100256216-100261029</t>
+          <t>chr9:37528077-37538319</t>
         </is>
       </c>
       <c r="D40">
-        <v>2.52442</v>
+        <v>0.878519</v>
       </c>
       <c r="E40">
-        <v>1.69003</v>
+        <v>0.424979</v>
       </c>
       <c r="F40">
-        <v>17.1113</v>
+        <v>0.149795</v>
       </c>
       <c r="G40">
-        <v>22.5262</v>
+        <v>0.390285</v>
       </c>
       <c r="H40">
-        <v>100.126</v>
+        <v>0.151397</v>
       </c>
       <c r="I40">
-        <v>103.822</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>260.64</v>
+        <v>0.223023</v>
       </c>
       <c r="K40">
-        <v>166.274</v>
+        <v>0.272077</v>
       </c>
       <c r="L40">
-        <v>0.0934036</v>
+        <v>14.108</v>
       </c>
       <c r="M40">
-        <v>0.0647441</v>
+        <v>10.0918</v>
       </c>
       <c r="N40">
-        <v>0.634451</v>
+        <v>9.640169999999999</v>
       </c>
       <c r="O40">
-        <v>0.0390075</v>
+        <v>7.79566</v>
       </c>
       <c r="P40">
-        <v>2.29858</v>
+        <v>14.687</v>
       </c>
       <c r="Q40">
-        <v>1.41935</v>
+        <v>8.426629999999999</v>
       </c>
       <c r="R40">
-        <v>1.25069</v>
+        <v>12.9031</v>
       </c>
       <c r="S40">
-        <v>0.11204</v>
+        <v>10.9815</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027356</t>
+          <t>ENSMUSG00000026674</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fermt1</t>
+          <t>Ddr2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chr2:132904388-132945906</t>
+          <t>chr1:169972306-170110729</t>
         </is>
       </c>
       <c r="D41">
-        <v>24.5566</v>
+        <v>4.46739</v>
       </c>
       <c r="E41">
-        <v>29.5033</v>
+        <v>2.15034</v>
       </c>
       <c r="F41">
-        <v>30.7073</v>
+        <v>2.02721</v>
       </c>
       <c r="G41">
-        <v>34.8361</v>
+        <v>2.575</v>
       </c>
       <c r="H41">
-        <v>25.7365</v>
+        <v>9.714270000000001</v>
       </c>
       <c r="I41">
-        <v>46.2366</v>
+        <v>1.43916</v>
       </c>
       <c r="J41">
-        <v>34.837</v>
+        <v>0.750884</v>
       </c>
       <c r="K41">
-        <v>41.5926</v>
+        <v>1.07613</v>
       </c>
       <c r="L41">
-        <v>0.07368719999999999</v>
+        <v>19.8894</v>
       </c>
       <c r="M41">
-        <v>0.0715083</v>
+        <v>24.9217</v>
       </c>
       <c r="N41">
-        <v>0.337497</v>
+        <v>23.2662</v>
       </c>
       <c r="O41">
-        <v>0.320044</v>
+        <v>30.3368</v>
       </c>
       <c r="P41">
-        <v>0.7411180000000001</v>
+        <v>30.6198</v>
       </c>
       <c r="Q41">
-        <v>0.646962</v>
+        <v>33.972</v>
       </c>
       <c r="R41">
-        <v>0.02234</v>
+        <v>29.9389</v>
       </c>
       <c r="S41">
-        <v>0.0117853</v>
+        <v>37.297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023039</t>
+          <t>ENSMUSG00000061524</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Krt7</t>
+          <t>Zic2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chr15:101411102-101430313</t>
+          <t>chr14:122475434-122479852</t>
         </is>
       </c>
       <c r="D42">
-        <v>17.4123</v>
+        <v>0.627912</v>
       </c>
       <c r="E42">
-        <v>20.0613</v>
+        <v>0.243232</v>
       </c>
       <c r="F42">
-        <v>35.5343</v>
+        <v>2.34712</v>
       </c>
       <c r="G42">
-        <v>30.6446</v>
+        <v>3.94689</v>
       </c>
       <c r="H42">
-        <v>27.6444</v>
+        <v>9.575760000000001</v>
       </c>
       <c r="I42">
-        <v>37.3108</v>
+        <v>1.72994</v>
       </c>
       <c r="J42">
-        <v>43.2767</v>
+        <v>0.637805</v>
       </c>
       <c r="K42">
-        <v>40.5773</v>
+        <v>0.647858</v>
       </c>
       <c r="L42">
-        <v>0.252819</v>
+        <v>9.722250000000001</v>
       </c>
       <c r="M42">
-        <v>0.110824</v>
+        <v>12.47</v>
       </c>
       <c r="N42">
-        <v>0.319756</v>
+        <v>45.7334</v>
       </c>
       <c r="O42">
-        <v>0.0591115</v>
+        <v>41.6562</v>
       </c>
       <c r="P42">
-        <v>0.494722</v>
+        <v>20.789</v>
       </c>
       <c r="Q42">
-        <v>0.268861</v>
+        <v>31.1767</v>
       </c>
       <c r="R42">
-        <v>0.05364</v>
+        <v>15.9902</v>
       </c>
       <c r="S42">
-        <v>0.0141487</v>
+        <v>23.1224</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENSMUSG00000053399</t>
+          <t>ENSMUSG00000021732</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Adamts18</t>
+          <t>Fgf10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chr8:113697125-113848615</t>
+          <t>chr13:118714698-118792115</t>
         </is>
       </c>
       <c r="D43">
-        <v>35.9205</v>
+        <v>1.90344</v>
       </c>
       <c r="E43">
-        <v>45.0042</v>
+        <v>1.31036</v>
       </c>
       <c r="F43">
-        <v>42.7687</v>
+        <v>0.865798</v>
       </c>
       <c r="G43">
-        <v>56.8442</v>
+        <v>1.00712</v>
       </c>
       <c r="H43">
-        <v>22.3076</v>
+        <v>3.54316</v>
       </c>
       <c r="I43">
-        <v>47.3255</v>
+        <v>0.499147</v>
       </c>
       <c r="J43">
-        <v>15.4926</v>
+        <v>0.738547</v>
       </c>
       <c r="K43">
-        <v>26.4169</v>
+        <v>0.288182</v>
       </c>
       <c r="L43">
-        <v>0.141223</v>
+        <v>11.9286</v>
       </c>
       <c r="M43">
-        <v>0.302571</v>
+        <v>19.9421</v>
       </c>
       <c r="N43">
-        <v>0.353808</v>
+        <v>11.8024</v>
       </c>
       <c r="O43">
-        <v>0.171572</v>
+        <v>15.0296</v>
       </c>
       <c r="P43">
-        <v>0.576938</v>
+        <v>14.5999</v>
       </c>
       <c r="Q43">
-        <v>0.368506</v>
+        <v>19.8285</v>
       </c>
       <c r="R43">
-        <v>0.0843327</v>
+        <v>21.5296</v>
       </c>
       <c r="S43">
-        <v>0.0616001</v>
+        <v>19.6414</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026638</t>
+          <t>ENSMUSG00000027962</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Irf6</t>
+          <t>Vcam1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chr1:193153110-193172023</t>
+          <t>chr3:116109948-116129688</t>
         </is>
       </c>
       <c r="D44">
-        <v>12.9548</v>
+        <v>1.39859</v>
       </c>
       <c r="E44">
-        <v>11.5196</v>
+        <v>0.514564</v>
       </c>
       <c r="F44">
-        <v>36.9182</v>
+        <v>2.33762</v>
       </c>
       <c r="G44">
-        <v>44.7327</v>
+        <v>2.51501</v>
       </c>
       <c r="H44">
-        <v>35.6507</v>
+        <v>13.1093</v>
       </c>
       <c r="I44">
-        <v>55.502</v>
+        <v>1.89566</v>
       </c>
       <c r="J44">
-        <v>48.4121</v>
+        <v>1.23473</v>
       </c>
       <c r="K44">
-        <v>50.5127</v>
+        <v>1.30988</v>
       </c>
       <c r="L44">
-        <v>0.0264167</v>
+        <v>6.47277</v>
       </c>
       <c r="M44">
-        <v>0.158696</v>
+        <v>4.52681</v>
       </c>
       <c r="N44">
-        <v>0.403306</v>
+        <v>39.9668</v>
       </c>
       <c r="O44">
-        <v>0.250063</v>
+        <v>37.5746</v>
       </c>
       <c r="P44">
-        <v>0.904473</v>
+        <v>41.3136</v>
       </c>
       <c r="Q44">
-        <v>0.505498</v>
+        <v>42.5701</v>
       </c>
       <c r="R44">
-        <v>0.391543</v>
+        <v>45.1389</v>
       </c>
       <c r="S44">
-        <v>0.309833</v>
+        <v>45.4515</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENSMUSG00000003309</t>
+          <t>ENSMUSG00000029309</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ap1m2</t>
+          <t>Sparcl1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chr9:21294612-21312337</t>
+          <t>chr5:104079110-104113733</t>
         </is>
       </c>
       <c r="D45">
-        <v>39.1499</v>
+        <v>0.771267</v>
       </c>
       <c r="E45">
-        <v>35.7783</v>
+        <v>0.483996</v>
       </c>
       <c r="F45">
-        <v>36.3993</v>
+        <v>0.0840417</v>
       </c>
       <c r="G45">
-        <v>28.1194</v>
+        <v>0.243527</v>
       </c>
       <c r="H45">
-        <v>28.5975</v>
+        <v>0.0767554</v>
       </c>
       <c r="I45">
-        <v>35.2923</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>38.1888</v>
+        <v>0.188027</v>
       </c>
       <c r="K45">
-        <v>34.8372</v>
+        <v>0.121215</v>
       </c>
       <c r="L45">
-        <v>0.29721</v>
+        <v>2.65165</v>
       </c>
       <c r="M45">
-        <v>0.088292</v>
+        <v>3.2757</v>
       </c>
       <c r="N45">
-        <v>0.528958</v>
+        <v>9.19758</v>
       </c>
       <c r="O45">
-        <v>0.432646</v>
+        <v>6.64433</v>
       </c>
       <c r="P45">
-        <v>0.736939</v>
+        <v>15.183</v>
       </c>
       <c r="Q45">
-        <v>0.401144</v>
+        <v>10.1762</v>
       </c>
       <c r="R45">
-        <v>0.107269</v>
+        <v>23.2949</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>23.6731</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025064</t>
+          <t>ENSMUSG00000062980</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Col17a1</t>
+          <t>Cped1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chr19:47646343-47692094</t>
+          <t>chr6:21985915-22256404</t>
         </is>
       </c>
       <c r="D46">
-        <v>5.27031</v>
+        <v>1.3193</v>
       </c>
       <c r="E46">
-        <v>3.39695</v>
+        <v>0.607966</v>
       </c>
       <c r="F46">
-        <v>14.3773</v>
+        <v>2.12128</v>
       </c>
       <c r="G46">
-        <v>17.1647</v>
+        <v>3.89388</v>
       </c>
       <c r="H46">
-        <v>79.21250000000001</v>
+        <v>9.771520000000001</v>
       </c>
       <c r="I46">
-        <v>52.7212</v>
+        <v>2.06087</v>
       </c>
       <c r="J46">
-        <v>166.071</v>
+        <v>1.52353</v>
       </c>
       <c r="K46">
-        <v>159.089</v>
+        <v>1.13602</v>
       </c>
       <c r="L46">
-        <v>0.039673</v>
+        <v>8.010210000000001</v>
       </c>
       <c r="M46">
-        <v>0.08171589999999999</v>
+        <v>12.557</v>
       </c>
       <c r="N46">
-        <v>0.287464</v>
+        <v>33.507</v>
       </c>
       <c r="O46">
-        <v>0.353478</v>
+        <v>43.9308</v>
       </c>
       <c r="P46">
-        <v>1.98332</v>
+        <v>25.095</v>
       </c>
       <c r="Q46">
-        <v>0.886748</v>
+        <v>43.6256</v>
       </c>
       <c r="R46">
-        <v>0.183994</v>
+        <v>31.3252</v>
       </c>
       <c r="S46">
-        <v>0.169212</v>
+        <v>38.1116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001510</t>
+          <t>ENSMUSG00000033191</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dlx3</t>
+          <t>Tie1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chr11:95120118-95125296</t>
+          <t>chr4:118471190-118490061</t>
         </is>
       </c>
       <c r="D47">
-        <v>48.0273</v>
+        <v>0.312088</v>
       </c>
       <c r="E47">
-        <v>56.6662</v>
+        <v>0.154992</v>
       </c>
       <c r="F47">
-        <v>40.3723</v>
+        <v>0.0170707</v>
       </c>
       <c r="G47">
-        <v>34.0841</v>
+        <v>0.177922</v>
       </c>
       <c r="H47">
-        <v>42.9976</v>
+        <v>0.207055</v>
       </c>
       <c r="I47">
-        <v>53.5187</v>
+        <v>0.0557716</v>
       </c>
       <c r="J47">
-        <v>91.64579999999999</v>
+        <v>0.253604</v>
       </c>
       <c r="K47">
-        <v>61.4586</v>
+        <v>0.09660059999999999</v>
       </c>
       <c r="L47">
-        <v>0.277846</v>
+        <v>8.93258</v>
       </c>
       <c r="M47">
-        <v>0.28889</v>
+        <v>7.64294</v>
       </c>
       <c r="N47">
-        <v>0.517657</v>
+        <v>7.1886</v>
       </c>
       <c r="O47">
-        <v>0.278484</v>
+        <v>6.07816</v>
       </c>
       <c r="P47">
-        <v>2.00667</v>
+        <v>12.1908</v>
       </c>
       <c r="Q47">
-        <v>0.703687</v>
+        <v>8.17188</v>
       </c>
       <c r="R47">
-        <v>6.80905</v>
+        <v>14.0998</v>
       </c>
       <c r="S47">
-        <v>2.13301</v>
+        <v>9.87182</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026479</t>
+          <t>ENSMUSG00000005397</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lamc2</t>
+          <t>Nid1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chr1:153122755-153186447</t>
+          <t>chr13:13437550-13512269</t>
         </is>
       </c>
       <c r="D48">
-        <v>14.8876</v>
+        <v>5.60366</v>
       </c>
       <c r="E48">
-        <v>9.975210000000001</v>
+        <v>3.12609</v>
       </c>
       <c r="F48">
-        <v>31.8069</v>
+        <v>4.03613</v>
       </c>
       <c r="G48">
-        <v>30.006</v>
+        <v>3.6126</v>
       </c>
       <c r="H48">
-        <v>46.9624</v>
+        <v>10.2331</v>
       </c>
       <c r="I48">
-        <v>53.3776</v>
+        <v>2.92184</v>
       </c>
       <c r="J48">
-        <v>52.6774</v>
+        <v>2.29949</v>
       </c>
       <c r="K48">
-        <v>44.7981</v>
+        <v>1.92791</v>
       </c>
       <c r="L48">
-        <v>0.0663031</v>
+        <v>46.6525</v>
       </c>
       <c r="M48">
-        <v>0.061278</v>
+        <v>40.4986</v>
       </c>
       <c r="N48">
-        <v>0.45181</v>
+        <v>55.8612</v>
       </c>
       <c r="O48">
-        <v>0.14768</v>
+        <v>44.5684</v>
       </c>
       <c r="P48">
-        <v>1.21392</v>
+        <v>31.8482</v>
       </c>
       <c r="Q48">
-        <v>0.435362</v>
+        <v>33.8531</v>
       </c>
       <c r="R48">
-        <v>1.23589</v>
+        <v>31.3906</v>
       </c>
       <c r="S48">
-        <v>0.164958</v>
+        <v>25.8859</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041911</t>
+          <t>ENSMUSG00000029373</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dlx1</t>
+          <t>Pf4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chr2:71528112-71533980</t>
+          <t>chr5:90772434-90773383</t>
         </is>
       </c>
       <c r="D49">
-        <v>18.6813</v>
+        <v>0.289514</v>
       </c>
       <c r="E49">
-        <v>17.9223</v>
+        <v>0.252333</v>
       </c>
       <c r="F49">
-        <v>30.6734</v>
+        <v>0.169927</v>
       </c>
       <c r="G49">
-        <v>38.6004</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>23.2924</v>
+        <v>0.600244</v>
       </c>
       <c r="I49">
-        <v>42.6947</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>25.0212</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>32.5186</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0.0352394</v>
+        <v>7.63765</v>
       </c>
       <c r="M49">
-        <v>0.0122133</v>
+        <v>3.34609</v>
       </c>
       <c r="N49">
-        <v>0.314815</v>
+        <v>8.31982</v>
       </c>
       <c r="O49">
-        <v>0.161884</v>
+        <v>11.2153</v>
       </c>
       <c r="P49">
-        <v>0.520549</v>
+        <v>17.2666</v>
       </c>
       <c r="Q49">
-        <v>0.471536</v>
+        <v>9.25576</v>
       </c>
       <c r="R49">
-        <v>0.0356122</v>
+        <v>7.09599</v>
       </c>
       <c r="S49">
-        <v>0.08777119999999999</v>
+        <v>9.851129999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ENSMUSG00000004951</t>
+          <t>ENSMUSG00000038193</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hspb1</t>
+          <t>Hand2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chr5:135887918-135889563</t>
+          <t>chr8:57320982-57324633</t>
         </is>
       </c>
       <c r="D50">
-        <v>35.7246</v>
+        <v>5.64791</v>
       </c>
       <c r="E50">
-        <v>22.2914</v>
+        <v>2.77684</v>
       </c>
       <c r="F50">
-        <v>158.399</v>
+        <v>7.99117</v>
       </c>
       <c r="G50">
-        <v>98.6888</v>
+        <v>3.81051</v>
       </c>
       <c r="H50">
-        <v>77.19410000000001</v>
+        <v>14.5171</v>
       </c>
       <c r="I50">
-        <v>87.1097</v>
+        <v>4.14891</v>
       </c>
       <c r="J50">
-        <v>101.805</v>
+        <v>0.6934709999999999</v>
       </c>
       <c r="K50">
-        <v>61.0827</v>
+        <v>1.87307</v>
       </c>
       <c r="L50">
-        <v>1.36366</v>
+        <v>19.3025</v>
       </c>
       <c r="M50">
-        <v>0.389217</v>
+        <v>15.1631</v>
       </c>
       <c r="N50">
-        <v>3.30035</v>
+        <v>72.1836</v>
       </c>
       <c r="O50">
-        <v>1.20599</v>
+        <v>59.2654</v>
       </c>
       <c r="P50">
-        <v>3.90514</v>
+        <v>56.2228</v>
       </c>
       <c r="Q50">
-        <v>2.37017</v>
+        <v>60.162</v>
       </c>
       <c r="R50">
-        <v>4.9449</v>
+        <v>33.6113</v>
       </c>
       <c r="S50">
-        <v>1.98855</v>
+        <v>40.5054</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001494</t>
+          <t>ENSMUSG00000027868</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sost</t>
+          <t>Tbx15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>chr11:101962457-101967015</t>
+          <t>chr3:99240380-99354259</t>
         </is>
       </c>
       <c r="D51">
-        <v>18.7043</v>
+        <v>0.983657</v>
       </c>
       <c r="E51">
-        <v>13.5732</v>
+        <v>0.540896</v>
       </c>
       <c r="F51">
-        <v>51.9582</v>
+        <v>3.76041</v>
       </c>
       <c r="G51">
-        <v>41.058</v>
+        <v>3.92532</v>
       </c>
       <c r="H51">
-        <v>37.1906</v>
+        <v>5.90881</v>
       </c>
       <c r="I51">
-        <v>65.43470000000001</v>
+        <v>1.79184</v>
       </c>
       <c r="J51">
-        <v>16.7332</v>
+        <v>0.21882</v>
       </c>
       <c r="K51">
-        <v>34.6771</v>
+        <v>0.474954</v>
       </c>
       <c r="L51">
-        <v>0.157771</v>
+        <v>10.1463</v>
       </c>
       <c r="M51">
-        <v>0.218723</v>
+        <v>13.1084</v>
       </c>
       <c r="N51">
-        <v>0.9934229999999999</v>
+        <v>46.368</v>
       </c>
       <c r="O51">
-        <v>0.234272</v>
+        <v>59.3981</v>
       </c>
       <c r="P51">
-        <v>1.12539</v>
+        <v>21.4808</v>
       </c>
       <c r="Q51">
-        <v>1.06554</v>
+        <v>47.1362</v>
       </c>
       <c r="R51">
-        <v>0.141725</v>
+        <v>3.89055</v>
       </c>
       <c r="S51">
-        <v>0.39252</v>
+        <v>17.5918</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028919</t>
+          <t>ENSMUSG00000061527</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Arhgef19</t>
+          <t>Krt5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>chr4:141239498-141257564</t>
+          <t>chr15:101707069-101712898</t>
         </is>
       </c>
       <c r="D52">
-        <v>33.4085</v>
+        <v>119.365</v>
       </c>
       <c r="E52">
-        <v>22.9376</v>
+        <v>76.6058</v>
       </c>
       <c r="F52">
-        <v>32.4794</v>
+        <v>360.681</v>
       </c>
       <c r="G52">
-        <v>31.364</v>
+        <v>289.307</v>
       </c>
       <c r="H52">
-        <v>34.6805</v>
+        <v>424.56</v>
       </c>
       <c r="I52">
-        <v>36.4598</v>
+        <v>461.446</v>
       </c>
       <c r="J52">
-        <v>52.3042</v>
+        <v>1042.93</v>
       </c>
       <c r="K52">
-        <v>41.7432</v>
+        <v>601.437</v>
       </c>
       <c r="L52">
-        <v>0.151085</v>
+        <v>0.362667</v>
       </c>
       <c r="M52">
-        <v>0.0653584</v>
+        <v>0.0228535</v>
       </c>
       <c r="N52">
-        <v>0.481311</v>
+        <v>5.40038</v>
       </c>
       <c r="O52">
-        <v>0.23038</v>
+        <v>2.36825</v>
       </c>
       <c r="P52">
-        <v>1.54133</v>
+        <v>9.54224</v>
       </c>
       <c r="Q52">
-        <v>0.922872</v>
+        <v>4.03587</v>
       </c>
       <c r="R52">
-        <v>1.2877</v>
+        <v>1.7159</v>
       </c>
       <c r="S52">
-        <v>1.1748</v>
+        <v>0.131827</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027315</t>
+          <t>ENSMUSG00000025219</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Spint1</t>
+          <t>Fgf8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chr2:119237361-119249527</t>
+          <t>chr19:45736797-45742915</t>
         </is>
       </c>
       <c r="D53">
-        <v>45.6286</v>
+        <v>279.809</v>
       </c>
       <c r="E53">
-        <v>31.7473</v>
+        <v>164.964</v>
       </c>
       <c r="F53">
-        <v>69.3074</v>
+        <v>1179.7</v>
       </c>
       <c r="G53">
-        <v>59.4163</v>
+        <v>769.556</v>
       </c>
       <c r="H53">
-        <v>46.1464</v>
+        <v>153.809</v>
       </c>
       <c r="I53">
-        <v>56.3002</v>
+        <v>346.789</v>
       </c>
       <c r="J53">
-        <v>51.3161</v>
+        <v>49.1851</v>
       </c>
       <c r="K53">
-        <v>43.0707</v>
+        <v>60.9514</v>
       </c>
       <c r="L53">
-        <v>0.286798</v>
+        <v>0.722456</v>
       </c>
       <c r="M53">
-        <v>0.265062</v>
+        <v>0.159388</v>
       </c>
       <c r="N53">
-        <v>1.18902</v>
+        <v>6.80512</v>
       </c>
       <c r="O53">
-        <v>1.03802</v>
+        <v>3.13541</v>
       </c>
       <c r="P53">
-        <v>2.67839</v>
+        <v>3.33805</v>
       </c>
       <c r="Q53">
-        <v>1.75477</v>
+        <v>1.67492</v>
       </c>
       <c r="R53">
-        <v>2.15741</v>
+        <v>0.232383</v>
       </c>
       <c r="S53">
-        <v>2.29912</v>
+        <v>0.0548465</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ENSMUSG00000058665</t>
+          <t>ENSMUSG00000019851</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>En1</t>
+          <t>Perp</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chr1:120602417-120607992</t>
+          <t>chr10:18845019-18857073</t>
         </is>
       </c>
       <c r="D54">
-        <v>26.5666</v>
+        <v>145.292</v>
       </c>
       <c r="E54">
-        <v>18.2072</v>
+        <v>111.152</v>
       </c>
       <c r="F54">
-        <v>25.7645</v>
+        <v>162.151</v>
       </c>
       <c r="G54">
-        <v>28.0807</v>
+        <v>138.858</v>
       </c>
       <c r="H54">
-        <v>28.717</v>
+        <v>148.808</v>
       </c>
       <c r="I54">
-        <v>28.8902</v>
+        <v>158.003</v>
       </c>
       <c r="J54">
-        <v>23.1302</v>
+        <v>244.112</v>
       </c>
       <c r="K54">
-        <v>31.563</v>
+        <v>201.328</v>
       </c>
       <c r="L54">
-        <v>0.331255</v>
+        <v>0.463848</v>
       </c>
       <c r="M54">
-        <v>0.172211</v>
+        <v>0.154331</v>
       </c>
       <c r="N54">
-        <v>0.257152</v>
+        <v>1.49794</v>
       </c>
       <c r="O54">
-        <v>0.20751</v>
+        <v>1.11579</v>
       </c>
       <c r="P54">
-        <v>0.723628</v>
+        <v>3.0572</v>
       </c>
       <c r="Q54">
-        <v>0.186434</v>
+        <v>1.66033</v>
       </c>
       <c r="R54">
-        <v>0.0697416</v>
+        <v>0.356254</v>
       </c>
       <c r="S54">
-        <v>0.0220749</v>
+        <v>0.0296745</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023043</t>
+          <t>ENSMUSG00000033227</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Krt18</t>
+          <t>Wnt6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chr15:102028179-102032027</t>
+          <t>chr1:74771891-74785322</t>
         </is>
       </c>
       <c r="D55">
-        <v>86.0055</v>
+        <v>184.578</v>
       </c>
       <c r="E55">
-        <v>71.6562</v>
+        <v>131.225</v>
       </c>
       <c r="F55">
-        <v>146.243</v>
+        <v>226.891</v>
       </c>
       <c r="G55">
-        <v>103.098</v>
+        <v>139.531</v>
       </c>
       <c r="H55">
-        <v>46.2486</v>
+        <v>160.248</v>
       </c>
       <c r="I55">
-        <v>81.9697</v>
+        <v>158.124</v>
       </c>
       <c r="J55">
-        <v>31.6901</v>
+        <v>158.716</v>
       </c>
       <c r="K55">
-        <v>32.5301</v>
+        <v>128.86</v>
       </c>
       <c r="L55">
-        <v>5.82198</v>
+        <v>0.507146</v>
       </c>
       <c r="M55">
-        <v>4.99645</v>
+        <v>0.266683</v>
       </c>
       <c r="N55">
-        <v>2.17174</v>
+        <v>2.62011</v>
       </c>
       <c r="O55">
-        <v>0.968347</v>
+        <v>1.05168</v>
       </c>
       <c r="P55">
-        <v>2.21126</v>
+        <v>3.38674</v>
       </c>
       <c r="Q55">
-        <v>1.61706</v>
+        <v>1.03344</v>
       </c>
       <c r="R55">
-        <v>0.86598</v>
+        <v>0.388802</v>
       </c>
       <c r="S55">
-        <v>0.68526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074227</t>
+          <t>ENSMUSG00000047281</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Spint2</t>
+          <t>Sfn</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>chr7:29256340-29281912</t>
+          <t>chr4:133600555-133602168</t>
         </is>
       </c>
       <c r="D56">
-        <v>105.433</v>
+        <v>35.6721</v>
       </c>
       <c r="E56">
-        <v>83.28870000000001</v>
+        <v>28.454</v>
       </c>
       <c r="F56">
-        <v>192.064</v>
+        <v>178.175</v>
       </c>
       <c r="G56">
-        <v>158.729</v>
+        <v>135.239</v>
       </c>
       <c r="H56">
-        <v>136.836</v>
+        <v>159.973</v>
       </c>
       <c r="I56">
-        <v>152.09</v>
+        <v>151.922</v>
       </c>
       <c r="J56">
-        <v>163.384</v>
+        <v>240.675</v>
       </c>
       <c r="K56">
-        <v>135.282</v>
+        <v>142.488</v>
       </c>
       <c r="L56">
-        <v>1.64488</v>
+        <v>0.0898134</v>
       </c>
       <c r="M56">
-        <v>1.8152</v>
+        <v>0.124511</v>
       </c>
       <c r="N56">
-        <v>4.49242</v>
+        <v>1.93477</v>
       </c>
       <c r="O56">
-        <v>2.69282</v>
+        <v>0.6001300000000001</v>
       </c>
       <c r="P56">
-        <v>10.2393</v>
+        <v>3.29131</v>
       </c>
       <c r="Q56">
-        <v>5.10007</v>
+        <v>1.40271</v>
       </c>
       <c r="R56">
-        <v>25.8416</v>
+        <v>0.226909</v>
       </c>
       <c r="S56">
-        <v>12.8702</v>
+        <v>0.107733</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031871</t>
+          <t>ENSMUSG00000026185</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cdh5</t>
+          <t>Igfbp5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>chr8:104101624-104144511</t>
+          <t>chr1:72857931-72874884</t>
         </is>
       </c>
       <c r="D57">
-        <v>0.894849</v>
+        <v>748.409</v>
       </c>
       <c r="E57">
-        <v>0.321874</v>
+        <v>507.262</v>
       </c>
       <c r="F57">
-        <v>0.192303</v>
+        <v>783.02</v>
       </c>
       <c r="G57">
-        <v>0.70076</v>
+        <v>737.724</v>
       </c>
       <c r="H57">
-        <v>0.159023</v>
+        <v>653.404</v>
       </c>
       <c r="I57">
-        <v>0.09994740000000001</v>
+        <v>702.95</v>
       </c>
       <c r="J57">
-        <v>0.519397</v>
+        <v>517.847</v>
       </c>
       <c r="K57">
-        <v>0.240239</v>
+        <v>734.842</v>
       </c>
       <c r="L57">
-        <v>25.9701</v>
+        <v>19.5197</v>
       </c>
       <c r="M57">
-        <v>20.3098</v>
+        <v>19.0771</v>
       </c>
       <c r="N57">
-        <v>23.2874</v>
+        <v>8.84745</v>
       </c>
       <c r="O57">
-        <v>20.8534</v>
+        <v>4.53302</v>
       </c>
       <c r="P57">
-        <v>38.5161</v>
+        <v>14.7558</v>
       </c>
       <c r="Q57">
-        <v>27.5368</v>
+        <v>6.74019</v>
       </c>
       <c r="R57">
-        <v>41.244</v>
+        <v>4.0464</v>
       </c>
       <c r="S57">
-        <v>36.5092</v>
+        <v>3.79992</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037188</t>
+          <t>ENSMUSG00000023906</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Grhl3</t>
+          <t>Cldn6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>chr4:135541887-135573630</t>
+          <t>chr17:23679364-23682446</t>
         </is>
       </c>
       <c r="D58">
-        <v>10.0102</v>
+        <v>219.857</v>
       </c>
       <c r="E58">
-        <v>8.91968</v>
+        <v>163.38</v>
       </c>
       <c r="F58">
-        <v>31.1267</v>
+        <v>190.556</v>
       </c>
       <c r="G58">
-        <v>34.1686</v>
+        <v>146.223</v>
       </c>
       <c r="H58">
-        <v>23.7911</v>
+        <v>98.96939999999999</v>
       </c>
       <c r="I58">
-        <v>36.2414</v>
+        <v>136.771</v>
       </c>
       <c r="J58">
-        <v>41.9425</v>
+        <v>127.817</v>
       </c>
       <c r="K58">
-        <v>40.7278</v>
+        <v>106.914</v>
       </c>
       <c r="L58">
-        <v>0.103886</v>
+        <v>0.625265</v>
       </c>
       <c r="M58">
-        <v>0.108015</v>
+        <v>1.2669</v>
       </c>
       <c r="N58">
-        <v>0.362907</v>
+        <v>2.05357</v>
       </c>
       <c r="O58">
-        <v>0.260311</v>
+        <v>1.52658</v>
       </c>
       <c r="P58">
-        <v>0.639135</v>
+        <v>2.93334</v>
       </c>
       <c r="Q58">
-        <v>0.548139</v>
+        <v>1.33995</v>
       </c>
       <c r="R58">
-        <v>0.83988</v>
+        <v>0.121515</v>
       </c>
       <c r="S58">
-        <v>0.228459</v>
+        <v>0.0384626</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000125</t>
+          <t>ENSMUSG00000022510</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wnt3</t>
+          <t>Trp63</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chr11:103774149-103817957</t>
+          <t>chr16:25683762-25892102</t>
         </is>
       </c>
       <c r="D59">
-        <v>16.3261</v>
+        <v>115.195</v>
       </c>
       <c r="E59">
-        <v>16.1106</v>
+        <v>109.711</v>
       </c>
       <c r="F59">
-        <v>26.6104</v>
+        <v>103.97</v>
       </c>
       <c r="G59">
-        <v>24.3913</v>
+        <v>105.196</v>
       </c>
       <c r="H59">
-        <v>14.7901</v>
+        <v>89.0968</v>
       </c>
       <c r="I59">
-        <v>25.053</v>
+        <v>105.883</v>
       </c>
       <c r="J59">
-        <v>34.2588</v>
+        <v>131.398</v>
       </c>
       <c r="K59">
-        <v>29.0356</v>
+        <v>147.83</v>
       </c>
       <c r="L59">
-        <v>0.07064479999999999</v>
+        <v>0.383261</v>
       </c>
       <c r="M59">
-        <v>0.0489685</v>
+        <v>0.182445</v>
       </c>
       <c r="N59">
-        <v>0.374748</v>
+        <v>1.43527</v>
       </c>
       <c r="O59">
-        <v>0.216355</v>
+        <v>0.802969</v>
       </c>
       <c r="P59">
-        <v>0.35274</v>
+        <v>2.23088</v>
       </c>
       <c r="Q59">
-        <v>0.377717</v>
+        <v>1.40195</v>
       </c>
       <c r="R59">
-        <v>0.0237974</v>
+        <v>0.332922</v>
       </c>
       <c r="S59">
-        <v>0.0941558</v>
+        <v>0.249207</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054065</t>
+          <t>ENSMUSG00000002980</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pkp3</t>
+          <t>Bcam</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chr7:141078217-141090510</t>
+          <t>chr7:19756130-19771016</t>
         </is>
       </c>
       <c r="D60">
-        <v>17.338</v>
+        <v>271.2</v>
       </c>
       <c r="E60">
-        <v>14.2508</v>
+        <v>194.689</v>
       </c>
       <c r="F60">
-        <v>25.0093</v>
+        <v>357.019</v>
       </c>
       <c r="G60">
-        <v>18.5192</v>
+        <v>257.453</v>
       </c>
       <c r="H60">
-        <v>30.3402</v>
+        <v>298.298</v>
       </c>
       <c r="I60">
-        <v>27.3591</v>
+        <v>282.27</v>
       </c>
       <c r="J60">
-        <v>59.7626</v>
+        <v>336.817</v>
       </c>
       <c r="K60">
-        <v>36.7586</v>
+        <v>274.962</v>
       </c>
       <c r="L60">
-        <v>0.178027</v>
+        <v>7.78321</v>
       </c>
       <c r="M60">
-        <v>0.282073</v>
+        <v>4.63023</v>
       </c>
       <c r="N60">
-        <v>0.559304</v>
+        <v>4.6878</v>
       </c>
       <c r="O60">
-        <v>0.238055</v>
+        <v>2.01752</v>
       </c>
       <c r="P60">
-        <v>0.9388339999999999</v>
+        <v>7.92888</v>
       </c>
       <c r="Q60">
-        <v>0.472894</v>
+        <v>3.81379</v>
       </c>
       <c r="R60">
-        <v>0.346983</v>
+        <v>1.44654</v>
       </c>
       <c r="S60">
-        <v>0.325408</v>
+        <v>0.810804</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022286</t>
+          <t>ENSMUSG00000045545</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Grhl2</t>
+          <t>Krt14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>chr15:37233035-37363569</t>
+          <t>chr11:100203161-100207548</t>
         </is>
       </c>
       <c r="D61">
-        <v>17.5691</v>
+        <v>5.51406</v>
       </c>
       <c r="E61">
-        <v>24.8368</v>
+        <v>6.32051</v>
       </c>
       <c r="F61">
-        <v>22.9872</v>
+        <v>59.2703</v>
       </c>
       <c r="G61">
-        <v>25.0846</v>
+        <v>66.60850000000001</v>
       </c>
       <c r="H61">
-        <v>16.3041</v>
+        <v>285.847</v>
       </c>
       <c r="I61">
-        <v>27.7411</v>
+        <v>242.174</v>
       </c>
       <c r="J61">
-        <v>25.5783</v>
+        <v>719.596</v>
       </c>
       <c r="K61">
-        <v>31.9035</v>
+        <v>442.539</v>
       </c>
       <c r="L61">
-        <v>0.0878526</v>
+        <v>0.106647</v>
       </c>
       <c r="M61">
-        <v>0.152703</v>
+        <v>0.0591391</v>
       </c>
       <c r="N61">
-        <v>0.358051</v>
+        <v>1.20872</v>
       </c>
       <c r="O61">
-        <v>0.149018</v>
+        <v>0.178153</v>
       </c>
       <c r="P61">
-        <v>0.336837</v>
+        <v>7.05186</v>
       </c>
       <c r="Q61">
-        <v>0.455435</v>
+        <v>3.16916</v>
       </c>
       <c r="R61">
-        <v>0.174578</v>
+        <v>1.18553</v>
       </c>
       <c r="S61">
-        <v>0.1878</v>
+        <v>0.10234</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENSMUSG00000034382</t>
+          <t>ENSMUSG00000044243</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AI661453</t>
+          <t>Bhlha9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>chr17:47436614-47470638</t>
+          <t>chr11:76672469-76673676</t>
         </is>
       </c>
       <c r="D62">
-        <v>25.5559</v>
+        <v>71.4362</v>
       </c>
       <c r="E62">
-        <v>22.7896</v>
+        <v>52.4075</v>
       </c>
       <c r="F62">
-        <v>27.1149</v>
+        <v>110.345</v>
       </c>
       <c r="G62">
-        <v>20.6232</v>
+        <v>77.5149</v>
       </c>
       <c r="H62">
-        <v>23.0768</v>
+        <v>84.8292</v>
       </c>
       <c r="I62">
-        <v>21.7165</v>
+        <v>119.187</v>
       </c>
       <c r="J62">
-        <v>32.9458</v>
+        <v>92.9866</v>
       </c>
       <c r="K62">
-        <v>24.6058</v>
+        <v>77.4109</v>
       </c>
       <c r="L62">
-        <v>0.126532</v>
+        <v>0.240048</v>
       </c>
       <c r="M62">
-        <v>0.0515949</v>
+        <v>0.08319650000000001</v>
       </c>
       <c r="N62">
-        <v>0.496899</v>
+        <v>1.56066</v>
       </c>
       <c r="O62">
-        <v>0.311409</v>
+        <v>0.150374</v>
       </c>
       <c r="P62">
-        <v>0.722282</v>
+        <v>1.99052</v>
       </c>
       <c r="Q62">
-        <v>0.405432</v>
+        <v>1.41857</v>
       </c>
       <c r="R62">
-        <v>0.120347</v>
+        <v>0.121294</v>
       </c>
       <c r="S62">
-        <v>0.0714244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENSMUSG00000049382</t>
+          <t>ENSMUSG00000045394</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Krt8</t>
+          <t>Epcam</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chr15:101996697-102004482</t>
+          <t>chr17:87635978-87651106</t>
         </is>
       </c>
       <c r="D63">
-        <v>73.42319999999999</v>
+        <v>107.982</v>
       </c>
       <c r="E63">
-        <v>54.5848</v>
+        <v>104.975</v>
       </c>
       <c r="F63">
-        <v>121.598</v>
+        <v>183.641</v>
       </c>
       <c r="G63">
-        <v>79.8396</v>
+        <v>185.62</v>
       </c>
       <c r="H63">
-        <v>33.2755</v>
+        <v>120.866</v>
       </c>
       <c r="I63">
-        <v>73.006</v>
+        <v>161.002</v>
       </c>
       <c r="J63">
-        <v>13.2469</v>
+        <v>129.542</v>
       </c>
       <c r="K63">
-        <v>17.7615</v>
+        <v>144.102</v>
       </c>
       <c r="L63">
-        <v>2.57109</v>
+        <v>0.514853</v>
       </c>
       <c r="M63">
-        <v>3.25667</v>
+        <v>0.566083</v>
       </c>
       <c r="N63">
-        <v>2.19695</v>
+        <v>2.59101</v>
       </c>
       <c r="O63">
-        <v>0.617984</v>
+        <v>1.83875</v>
       </c>
       <c r="P63">
-        <v>1.30621</v>
+        <v>3.74213</v>
       </c>
       <c r="Q63">
-        <v>0.999394</v>
+        <v>2.3381</v>
       </c>
       <c r="R63">
-        <v>0.766402</v>
+        <v>1.57884</v>
       </c>
       <c r="S63">
-        <v>0.41417</v>
+        <v>0.795044</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ENSMUSG00000084128</t>
+          <t>ENSMUSG00000000303</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Esrp2</t>
+          <t>Cdh1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chr8:106130318-106136974</t>
+          <t>chr8:106603350-106670246</t>
         </is>
       </c>
       <c r="D64">
-        <v>8.34904</v>
+        <v>86.998</v>
       </c>
       <c r="E64">
-        <v>9.59882</v>
+        <v>67.789</v>
       </c>
       <c r="F64">
-        <v>29.302</v>
+        <v>122.704</v>
       </c>
       <c r="G64">
-        <v>31.4587</v>
+        <v>101.554</v>
       </c>
       <c r="H64">
-        <v>18.2149</v>
+        <v>61.3073</v>
       </c>
       <c r="I64">
-        <v>31.5974</v>
+        <v>92.50239999999999</v>
       </c>
       <c r="J64">
-        <v>25.19</v>
+        <v>80.4327</v>
       </c>
       <c r="K64">
-        <v>27.4674</v>
+        <v>75.20050000000001</v>
       </c>
       <c r="L64">
-        <v>0.0512122</v>
+        <v>0.327019</v>
       </c>
       <c r="M64">
-        <v>0.08519640000000001</v>
+        <v>0.328685</v>
       </c>
       <c r="N64">
-        <v>0.337918</v>
+        <v>1.52342</v>
       </c>
       <c r="O64">
-        <v>0.273759</v>
+        <v>0.423371</v>
       </c>
       <c r="P64">
-        <v>0.416442</v>
+        <v>1.28057</v>
       </c>
       <c r="Q64">
-        <v>0.311286</v>
+        <v>0.883467</v>
       </c>
       <c r="R64">
-        <v>0.07245550000000001</v>
+        <v>0.239636</v>
       </c>
       <c r="S64">
-        <v>0.0327628</v>
+        <v>0.0523025</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036856</t>
+          <t>ENSMUSG00000025856</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wnt4</t>
+          <t>Pdgfa</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chr4:137277488-137299726</t>
+          <t>chr5:138976013-138997370</t>
         </is>
       </c>
       <c r="D65">
-        <v>14.8356</v>
+        <v>155.063</v>
       </c>
       <c r="E65">
-        <v>13.9268</v>
+        <v>199.632</v>
       </c>
       <c r="F65">
-        <v>21.4985</v>
+        <v>163.3</v>
       </c>
       <c r="G65">
-        <v>20.4391</v>
+        <v>174.534</v>
       </c>
       <c r="H65">
-        <v>23.7399</v>
+        <v>87.23699999999999</v>
       </c>
       <c r="I65">
-        <v>21.4075</v>
+        <v>150.477</v>
       </c>
       <c r="J65">
-        <v>38.361</v>
+        <v>94.63809999999999</v>
       </c>
       <c r="K65">
-        <v>31.0684</v>
+        <v>117.207</v>
       </c>
       <c r="L65">
-        <v>0.120897</v>
+        <v>0.829052</v>
       </c>
       <c r="M65">
-        <v>0.119716</v>
+        <v>0.810429</v>
       </c>
       <c r="N65">
-        <v>0.25474</v>
+        <v>2.30928</v>
       </c>
       <c r="O65">
-        <v>0.28851</v>
+        <v>1.62656</v>
       </c>
       <c r="P65">
-        <v>0.50818</v>
+        <v>2.67971</v>
       </c>
       <c r="Q65">
-        <v>0.247868</v>
+        <v>2.39691</v>
       </c>
       <c r="R65">
-        <v>0.13963</v>
+        <v>1.62097</v>
       </c>
       <c r="S65">
-        <v>0.234792</v>
+        <v>1.67305</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENSMUSG00000055044</t>
+          <t>ENSMUSG00000038560</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pdlim1</t>
+          <t>Sp6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chr19:40221172-40271842</t>
+          <t>chr11:97013393-97024734</t>
         </is>
       </c>
       <c r="D66">
-        <v>98.29859999999999</v>
+        <v>112.653</v>
       </c>
       <c r="E66">
-        <v>84.4913</v>
+        <v>113.896</v>
       </c>
       <c r="F66">
-        <v>101.126</v>
+        <v>118.793</v>
       </c>
       <c r="G66">
-        <v>77.75109999999999</v>
+        <v>104.646</v>
       </c>
       <c r="H66">
-        <v>99.1973</v>
+        <v>79.79949999999999</v>
       </c>
       <c r="I66">
-        <v>101.391</v>
+        <v>130.675</v>
       </c>
       <c r="J66">
-        <v>175.919</v>
+        <v>66.0752</v>
       </c>
       <c r="K66">
-        <v>130.962</v>
+        <v>56.5873</v>
       </c>
       <c r="L66">
-        <v>5.21228</v>
+        <v>1.11022</v>
       </c>
       <c r="M66">
-        <v>3.42914</v>
+        <v>1.95482</v>
       </c>
       <c r="N66">
-        <v>7.2001</v>
+        <v>1.17276</v>
       </c>
       <c r="O66">
-        <v>4.99022</v>
+        <v>0.801864</v>
       </c>
       <c r="P66">
-        <v>5.8452</v>
+        <v>2.25807</v>
       </c>
       <c r="Q66">
-        <v>5.62951</v>
+        <v>0.931191</v>
       </c>
       <c r="R66">
-        <v>3.98838</v>
+        <v>0.092877</v>
       </c>
       <c r="S66">
-        <v>2.19593</v>
+        <v>0.191963</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037600</t>
+          <t>ENSMUSG00000047501</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kdf1</t>
+          <t>Cldn4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>chr4:133518962-133530790</t>
+          <t>chr5:134945118-134946934</t>
         </is>
       </c>
       <c r="D67">
-        <v>19.9668</v>
+        <v>68.8998</v>
       </c>
       <c r="E67">
-        <v>17.3488</v>
+        <v>47.6598</v>
       </c>
       <c r="F67">
-        <v>24.7286</v>
+        <v>90.7242</v>
       </c>
       <c r="G67">
-        <v>19.2079</v>
+        <v>63.7912</v>
       </c>
       <c r="H67">
-        <v>20.9959</v>
+        <v>48.8795</v>
       </c>
       <c r="I67">
-        <v>22.0096</v>
+        <v>56.2561</v>
       </c>
       <c r="J67">
-        <v>29.6926</v>
+        <v>70.8218</v>
       </c>
       <c r="K67">
-        <v>22.4571</v>
+        <v>45.8862</v>
       </c>
       <c r="L67">
-        <v>0.0481665</v>
+        <v>0.299151</v>
       </c>
       <c r="M67">
-        <v>0.18884</v>
+        <v>0.0276482</v>
       </c>
       <c r="N67">
-        <v>0.176036</v>
+        <v>1.02181</v>
       </c>
       <c r="O67">
-        <v>0.213533</v>
+        <v>0.533045</v>
       </c>
       <c r="P67">
-        <v>0.697367</v>
+        <v>1.06693</v>
       </c>
       <c r="Q67">
-        <v>0.333143</v>
+        <v>0.505097</v>
       </c>
       <c r="R67">
-        <v>0.273524</v>
+        <v>0.120926</v>
       </c>
       <c r="S67">
-        <v>0.06801989999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENSMUSG00000005251</t>
+          <t>ENSMUSG00000040728</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ripk4</t>
+          <t>Esrp1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>chr16:97741932-97763787</t>
+          <t>chr4:11331932-11386783</t>
         </is>
       </c>
       <c r="D68">
-        <v>20.0289</v>
+        <v>43.5837</v>
       </c>
       <c r="E68">
-        <v>23.0139</v>
+        <v>46.2627</v>
       </c>
       <c r="F68">
-        <v>22.5024</v>
+        <v>54.4084</v>
       </c>
       <c r="G68">
-        <v>20.8932</v>
+        <v>63.5675</v>
       </c>
       <c r="H68">
-        <v>14.6249</v>
+        <v>48.0509</v>
       </c>
       <c r="I68">
-        <v>20.1893</v>
+        <v>71.05719999999999</v>
       </c>
       <c r="J68">
-        <v>32.4411</v>
+        <v>65.6246</v>
       </c>
       <c r="K68">
-        <v>25.579</v>
+        <v>75.15219999999999</v>
       </c>
       <c r="L68">
-        <v>0.221882</v>
+        <v>0.09240130000000001</v>
       </c>
       <c r="M68">
-        <v>0.0699096</v>
+        <v>0.546641</v>
       </c>
       <c r="N68">
-        <v>0.344492</v>
+        <v>0.75605</v>
       </c>
       <c r="O68">
-        <v>0.269566</v>
+        <v>0.430967</v>
       </c>
       <c r="P68">
-        <v>0.507184</v>
+        <v>1.03091</v>
       </c>
       <c r="Q68">
-        <v>0.238403</v>
+        <v>0.791145</v>
       </c>
       <c r="R68">
-        <v>0.22423</v>
+        <v>0.0791524</v>
       </c>
       <c r="S68">
-        <v>0.112914</v>
+        <v>0.09982000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028786</t>
+          <t>ENSMUSG00000032013</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tmem54</t>
+          <t>Trim29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>chr4:129105547-129111626</t>
+          <t>chr9:43310847-43336115</t>
         </is>
       </c>
       <c r="D69">
-        <v>35.2662</v>
+        <v>20.4467</v>
       </c>
       <c r="E69">
-        <v>28.154</v>
+        <v>15.2802</v>
       </c>
       <c r="F69">
-        <v>28.0935</v>
+        <v>76.2251</v>
       </c>
       <c r="G69">
-        <v>20.991</v>
+        <v>53.0427</v>
       </c>
       <c r="H69">
-        <v>16.5603</v>
+        <v>58.7809</v>
       </c>
       <c r="I69">
-        <v>18.0971</v>
+        <v>63.6736</v>
       </c>
       <c r="J69">
-        <v>26.2805</v>
+        <v>101.433</v>
       </c>
       <c r="K69">
-        <v>17.7368</v>
+        <v>61.4103</v>
       </c>
       <c r="L69">
-        <v>0.373724</v>
+        <v>0.0264843</v>
       </c>
       <c r="M69">
-        <v>0.0508174</v>
+        <v>0.036716</v>
       </c>
       <c r="N69">
-        <v>0.448375</v>
+        <v>0.863503</v>
       </c>
       <c r="O69">
-        <v>0.427912</v>
+        <v>0.176967</v>
       </c>
       <c r="P69">
-        <v>0.274552</v>
+        <v>1.41686</v>
       </c>
       <c r="Q69">
-        <v>0.344186</v>
+        <v>0.670754</v>
       </c>
       <c r="R69">
-        <v>0.0740852</v>
+        <v>0.107058</v>
       </c>
       <c r="S69">
-        <v>0.597722</v>
+        <v>0.0423581</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037016</t>
+          <t>ENSMUSG00000042367</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Frem2</t>
+          <t>Gjb3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chr3:53513937-53657355</t>
+          <t>chr4:127325234-127330844</t>
         </is>
       </c>
       <c r="D70">
-        <v>33.494</v>
+        <v>78.032</v>
       </c>
       <c r="E70">
-        <v>25.5577</v>
+        <v>65.06610000000001</v>
       </c>
       <c r="F70">
-        <v>34.7452</v>
+        <v>72.1981</v>
       </c>
       <c r="G70">
-        <v>37.2183</v>
+        <v>56.4232</v>
       </c>
       <c r="H70">
-        <v>54.6708</v>
+        <v>49.1113</v>
       </c>
       <c r="I70">
-        <v>52.9439</v>
+        <v>60.504</v>
       </c>
       <c r="J70">
-        <v>54.2898</v>
+        <v>46.6392</v>
       </c>
       <c r="K70">
-        <v>69.0568</v>
+        <v>40.7253</v>
       </c>
       <c r="L70">
-        <v>0.630605</v>
+        <v>0.179148</v>
       </c>
       <c r="M70">
-        <v>0.552999</v>
+        <v>0.0618702</v>
       </c>
       <c r="N70">
-        <v>0.867501</v>
+        <v>1.16536</v>
       </c>
       <c r="O70">
-        <v>0.759443</v>
+        <v>0.450543</v>
       </c>
       <c r="P70">
-        <v>2.93426</v>
+        <v>1.3447</v>
       </c>
       <c r="Q70">
-        <v>1.38663</v>
+        <v>0.720395</v>
       </c>
       <c r="R70">
-        <v>5.61989</v>
+        <v>0.0584049</v>
       </c>
       <c r="S70">
-        <v>2.93188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENSMUSG00000044393</t>
+          <t>ENSMUSG00000023391</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dsg2</t>
+          <t>Dlx2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chr18:20558073-20604521</t>
+          <t>chr2:71543407-71546754</t>
         </is>
       </c>
       <c r="D71">
-        <v>20.5701</v>
+        <v>63.7087</v>
       </c>
       <c r="E71">
-        <v>17.3286</v>
+        <v>59.2167</v>
       </c>
       <c r="F71">
-        <v>27.974</v>
+        <v>79.8103</v>
       </c>
       <c r="G71">
-        <v>26.276</v>
+        <v>74.7826</v>
       </c>
       <c r="H71">
-        <v>23.3208</v>
+        <v>73.1861</v>
       </c>
       <c r="I71">
-        <v>33.846</v>
+        <v>100.082</v>
       </c>
       <c r="J71">
-        <v>33.1653</v>
+        <v>101.931</v>
       </c>
       <c r="K71">
-        <v>33.2459</v>
+        <v>74.51390000000001</v>
       </c>
       <c r="L71">
-        <v>0.213564</v>
+        <v>0.307546</v>
       </c>
       <c r="M71">
-        <v>0.541942</v>
+        <v>0.182726</v>
       </c>
       <c r="N71">
-        <v>0.29744</v>
+        <v>1.18236</v>
       </c>
       <c r="O71">
-        <v>0.134286</v>
+        <v>0.513754</v>
       </c>
       <c r="P71">
-        <v>0.907288</v>
+        <v>2.20942</v>
       </c>
       <c r="Q71">
-        <v>0.689495</v>
+        <v>1.50836</v>
       </c>
       <c r="R71">
-        <v>1.53736</v>
+        <v>2.7232</v>
       </c>
       <c r="S71">
-        <v>1.03469</v>
+        <v>0.726108</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023067</t>
+          <t>ENSMUSG00000054889</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cdkn1a</t>
+          <t>Dsp</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chr17:29090978-29100722</t>
+          <t>chr13:38151293-38198577</t>
         </is>
       </c>
       <c r="D72">
-        <v>22.6448</v>
+        <v>29.7549</v>
       </c>
       <c r="E72">
-        <v>21.6564</v>
+        <v>25.151</v>
       </c>
       <c r="F72">
-        <v>67.982</v>
+        <v>65.5333</v>
       </c>
       <c r="G72">
-        <v>53.7324</v>
+        <v>64.5604</v>
       </c>
       <c r="H72">
-        <v>25.075</v>
+        <v>90.71469999999999</v>
       </c>
       <c r="I72">
-        <v>67.2157</v>
+        <v>97.3278</v>
       </c>
       <c r="J72">
-        <v>34.0408</v>
+        <v>145.174</v>
       </c>
       <c r="K72">
-        <v>24.0929</v>
+        <v>150.046</v>
       </c>
       <c r="L72">
-        <v>1.19298</v>
+        <v>1.89897</v>
       </c>
       <c r="M72">
-        <v>0.6745</v>
+        <v>1.00083</v>
       </c>
       <c r="N72">
-        <v>1.50607</v>
+        <v>0.937934</v>
       </c>
       <c r="O72">
-        <v>1.48877</v>
+        <v>0.3737</v>
       </c>
       <c r="P72">
-        <v>1.18538</v>
+        <v>1.86153</v>
       </c>
       <c r="Q72">
-        <v>1.13168</v>
+        <v>1.37146</v>
       </c>
       <c r="R72">
-        <v>1.86757</v>
+        <v>0.768999</v>
       </c>
       <c r="S72">
-        <v>0.727861</v>
+        <v>0.469611</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043969</t>
+          <t>ENSMUSG00000031995</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Emx2</t>
+          <t>St14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chr19:59458371-59465357</t>
+          <t>chr9:31089401-31131853</t>
         </is>
       </c>
       <c r="D73">
-        <v>19.9562</v>
+        <v>39.0718</v>
       </c>
       <c r="E73">
-        <v>28.0632</v>
+        <v>29.6835</v>
       </c>
       <c r="F73">
-        <v>24.6958</v>
+        <v>116.495</v>
       </c>
       <c r="G73">
-        <v>22.5572</v>
+        <v>85.26600000000001</v>
       </c>
       <c r="H73">
-        <v>17.6091</v>
+        <v>42.4528</v>
       </c>
       <c r="I73">
-        <v>30.5412</v>
+        <v>64.27</v>
       </c>
       <c r="J73">
-        <v>43.5035</v>
+        <v>45.6033</v>
       </c>
       <c r="K73">
-        <v>47.4302</v>
+        <v>31.9959</v>
       </c>
       <c r="L73">
-        <v>4.30774</v>
+        <v>0.11113</v>
       </c>
       <c r="M73">
-        <v>2.64885</v>
+        <v>0.107844</v>
       </c>
       <c r="N73">
-        <v>0.264455</v>
+        <v>1.19052</v>
       </c>
       <c r="O73">
-        <v>0.10374</v>
+        <v>0.705439</v>
       </c>
       <c r="P73">
-        <v>0.440426</v>
+        <v>1.20094</v>
       </c>
       <c r="Q73">
-        <v>0.410661</v>
+        <v>0.544143</v>
       </c>
       <c r="R73">
-        <v>0.299108</v>
+        <v>0.112306</v>
       </c>
       <c r="S73">
-        <v>0.107818</v>
+        <v>0.07109500000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032561</t>
+          <t>ENSMUSG00000018569</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Acpp</t>
+          <t>Cldn7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chr9:104288250-104337748</t>
+          <t>chr11:69964778-69967885</t>
         </is>
       </c>
       <c r="D74">
-        <v>12.7236</v>
+        <v>69.51130000000001</v>
       </c>
       <c r="E74">
-        <v>11.2666</v>
+        <v>63.4625</v>
       </c>
       <c r="F74">
-        <v>22.3265</v>
+        <v>80.00539999999999</v>
       </c>
       <c r="G74">
-        <v>24.109</v>
+        <v>79.5248</v>
       </c>
       <c r="H74">
-        <v>24.0244</v>
+        <v>38.6133</v>
       </c>
       <c r="I74">
-        <v>25.2741</v>
+        <v>68.1788</v>
       </c>
       <c r="J74">
-        <v>21.1383</v>
+        <v>39.807</v>
       </c>
       <c r="K74">
-        <v>26.1765</v>
+        <v>43.1919</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.108517</v>
       </c>
       <c r="M74">
-        <v>0.0223998</v>
+        <v>0.454876</v>
       </c>
       <c r="N74">
-        <v>0.333318</v>
+        <v>0.883254</v>
       </c>
       <c r="O74">
-        <v>0.180582</v>
+        <v>0.586997</v>
       </c>
       <c r="P74">
-        <v>1.01479</v>
+        <v>0.947815</v>
       </c>
       <c r="Q74">
-        <v>0.491058</v>
+        <v>0.99792</v>
       </c>
       <c r="R74">
-        <v>0.138266</v>
+        <v>0.442676</v>
       </c>
       <c r="S74">
-        <v>0.206741</v>
+        <v>0.39575</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ENSMUSG00000034845</t>
+          <t>ENSMUSG00000022382</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Plvap</t>
+          <t>Wnt7b</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chr8:71497764-71511752</t>
+          <t>chr15:85535436-85582473</t>
         </is>
       </c>
       <c r="D75">
-        <v>2.01334</v>
+        <v>12.1875</v>
       </c>
       <c r="E75">
-        <v>0.896055</v>
+        <v>9.45965</v>
       </c>
       <c r="F75">
-        <v>0.281192</v>
+        <v>52.0168</v>
       </c>
       <c r="G75">
-        <v>0.676284</v>
+        <v>38.9484</v>
       </c>
       <c r="H75">
-        <v>0.142101</v>
+        <v>73.3886</v>
       </c>
       <c r="I75">
-        <v>0.0861219</v>
+        <v>71.342</v>
       </c>
       <c r="J75">
-        <v>0.559438</v>
+        <v>161.432</v>
       </c>
       <c r="K75">
-        <v>0.227302</v>
+        <v>100.208</v>
       </c>
       <c r="L75">
-        <v>31.0408</v>
+        <v>0.110596</v>
       </c>
       <c r="M75">
-        <v>24.6623</v>
+        <v>0.0398323</v>
       </c>
       <c r="N75">
-        <v>23.9128</v>
+        <v>0.924023</v>
       </c>
       <c r="O75">
-        <v>16.2898</v>
+        <v>0.290369</v>
       </c>
       <c r="P75">
-        <v>30.9501</v>
+        <v>2.04709</v>
       </c>
       <c r="Q75">
-        <v>21.2657</v>
+        <v>1.15121</v>
       </c>
       <c r="R75">
-        <v>34.2426</v>
+        <v>0.29275</v>
       </c>
       <c r="S75">
-        <v>19.8815</v>
+        <v>0.110902</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024987</t>
+          <t>ENSMUSG00000040680</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cyp26a1</t>
+          <t>Kremen2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chr19:37697807-37701528</t>
+          <t>chr17:23741196-23745833</t>
         </is>
       </c>
       <c r="D76">
-        <v>3.3125</v>
+        <v>23.4543</v>
       </c>
       <c r="E76">
-        <v>2.67789</v>
+        <v>21.2226</v>
       </c>
       <c r="F76">
-        <v>15.7566</v>
+        <v>56.1558</v>
       </c>
       <c r="G76">
-        <v>20.0215</v>
+        <v>42.6194</v>
       </c>
       <c r="H76">
-        <v>29.9992</v>
+        <v>31.3875</v>
       </c>
       <c r="I76">
-        <v>44.9446</v>
+        <v>37.1589</v>
       </c>
       <c r="J76">
-        <v>35.4233</v>
+        <v>51.2081</v>
       </c>
       <c r="K76">
-        <v>52.5396</v>
+        <v>45.8191</v>
       </c>
       <c r="L76">
-        <v>0.388115</v>
+        <v>0.0341189</v>
       </c>
       <c r="M76">
-        <v>0.283187</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>0.237862</v>
+        <v>0.54297</v>
       </c>
       <c r="O76">
-        <v>0.136493</v>
+        <v>0.398968</v>
       </c>
       <c r="P76">
-        <v>1.0491</v>
+        <v>0.675359</v>
       </c>
       <c r="Q76">
-        <v>0.448367</v>
+        <v>0.259234</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>0.10344</v>
       </c>
       <c r="S76">
-        <v>0.06534089999999999</v>
+        <v>0.109137</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025150</t>
+          <t>ENSMUSG00000017754</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cbr2</t>
+          <t>Pltp</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chr11:120729488-120732114</t>
+          <t>chr2:164839517-164857711</t>
         </is>
       </c>
       <c r="D77">
-        <v>23.4122</v>
+        <v>60.9885</v>
       </c>
       <c r="E77">
-        <v>19.6731</v>
+        <v>43.1892</v>
       </c>
       <c r="F77">
-        <v>34.467</v>
+        <v>88.5979</v>
       </c>
       <c r="G77">
-        <v>22.872</v>
+        <v>65.4089</v>
       </c>
       <c r="H77">
-        <v>11.8284</v>
+        <v>77.88290000000001</v>
       </c>
       <c r="I77">
-        <v>15.4166</v>
+        <v>72.6618</v>
       </c>
       <c r="J77">
-        <v>17.1915</v>
+        <v>109.955</v>
       </c>
       <c r="K77">
-        <v>14.7498</v>
+        <v>89.0205</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>0.725411</v>
       </c>
       <c r="M77">
-        <v>0.0452334</v>
+        <v>0.191271</v>
       </c>
       <c r="N77">
-        <v>0.785204</v>
+        <v>1.3873</v>
       </c>
       <c r="O77">
-        <v>0.262457</v>
+        <v>0.784008</v>
       </c>
       <c r="P77">
-        <v>0.174574</v>
+        <v>3.76125</v>
       </c>
       <c r="Q77">
-        <v>0.0550968</v>
+        <v>2.09787</v>
       </c>
       <c r="R77">
-        <v>0.0329733</v>
+        <v>2.72707</v>
       </c>
       <c r="S77">
-        <v>0.104371</v>
+        <v>1.78674</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ENSMUSG00000019312</t>
+          <t>ENSMUSG00000030093</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Grb7</t>
+          <t>Wnt7a</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>chr11:98446393-98455373</t>
+          <t>chr6:91363980-91411363</t>
         </is>
       </c>
       <c r="D78">
-        <v>32.9189</v>
+        <v>52.5138</v>
       </c>
       <c r="E78">
-        <v>31.1146</v>
+        <v>55.3977</v>
       </c>
       <c r="F78">
-        <v>26.2419</v>
+        <v>38.3333</v>
       </c>
       <c r="G78">
-        <v>21.6422</v>
+        <v>28.0307</v>
       </c>
       <c r="H78">
-        <v>17.729</v>
+        <v>23.0437</v>
       </c>
       <c r="I78">
-        <v>23.5797</v>
+        <v>35.552</v>
       </c>
       <c r="J78">
-        <v>24.9671</v>
+        <v>47.5784</v>
       </c>
       <c r="K78">
-        <v>19.4218</v>
+        <v>26.1813</v>
       </c>
       <c r="L78">
-        <v>0.876353</v>
+        <v>0.06850680000000001</v>
       </c>
       <c r="M78">
-        <v>1.00547</v>
+        <v>0.0791442</v>
       </c>
       <c r="N78">
-        <v>0.258047</v>
+        <v>0.664768</v>
       </c>
       <c r="O78">
-        <v>0.52664</v>
+        <v>0.05722</v>
       </c>
       <c r="P78">
-        <v>0.376211</v>
+        <v>0.452014</v>
       </c>
       <c r="Q78">
-        <v>0.437767</v>
+        <v>0.231338</v>
       </c>
       <c r="R78">
-        <v>0.237451</v>
+        <v>0.0230772</v>
       </c>
       <c r="S78">
-        <v>0.181471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042808</t>
+          <t>ENSMUSG00000057092</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Gpx2</t>
+          <t>Fxyd3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>chr12:76792334-76795554</t>
+          <t>chr7:31068171-31076704</t>
         </is>
       </c>
       <c r="D79">
-        <v>16.2735</v>
+        <v>10.7502</v>
       </c>
       <c r="E79">
-        <v>9.316689999999999</v>
+        <v>7.17848</v>
       </c>
       <c r="F79">
-        <v>52.0372</v>
+        <v>50.1551</v>
       </c>
       <c r="G79">
-        <v>32.482</v>
+        <v>66.1229</v>
       </c>
       <c r="H79">
-        <v>28.0172</v>
+        <v>37.4014</v>
       </c>
       <c r="I79">
-        <v>45.2803</v>
+        <v>59.3514</v>
       </c>
       <c r="J79">
-        <v>8.0566</v>
+        <v>38.2068</v>
       </c>
       <c r="K79">
-        <v>6.13769</v>
+        <v>36.5868</v>
       </c>
       <c r="L79">
-        <v>0.0339431</v>
+        <v>0.105898</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0.316198</v>
+        <v>0.255339</v>
       </c>
       <c r="O79">
-        <v>0.170105</v>
+        <v>0.491619</v>
       </c>
       <c r="P79">
-        <v>0.9079429999999999</v>
+        <v>0.439879</v>
       </c>
       <c r="Q79">
-        <v>0.573106</v>
+        <v>0.285397</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>0.012647</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -5527,1431 +5527,1431 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ENSMUSG00000006411</t>
+          <t>ENSMUSG00000051397</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nectin4</t>
+          <t>Tacstd2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chr1:171370098-171388598</t>
+          <t>chr6:67534061-67535796</t>
         </is>
       </c>
       <c r="D80">
-        <v>2.46049</v>
+        <v>4.02282</v>
       </c>
       <c r="E80">
-        <v>1.70652</v>
+        <v>2.93608</v>
       </c>
       <c r="F80">
-        <v>19.7275</v>
+        <v>53.5381</v>
       </c>
       <c r="G80">
-        <v>26.2674</v>
+        <v>46.2125</v>
       </c>
       <c r="H80">
-        <v>20.5808</v>
+        <v>51.3039</v>
       </c>
       <c r="I80">
-        <v>32.7142</v>
+        <v>56.9099</v>
       </c>
       <c r="J80">
-        <v>36.0015</v>
+        <v>82.7135</v>
       </c>
       <c r="K80">
-        <v>32.8735</v>
+        <v>63.9403</v>
       </c>
       <c r="L80">
-        <v>0.0791998</v>
+        <v>0.0208745</v>
       </c>
       <c r="M80">
-        <v>0.0156789</v>
+        <v>0.0289389</v>
       </c>
       <c r="N80">
-        <v>0.28592</v>
+        <v>0.599576</v>
       </c>
       <c r="O80">
-        <v>0.151197</v>
+        <v>0.244095</v>
       </c>
       <c r="P80">
-        <v>0.520553</v>
+        <v>0.848725</v>
       </c>
       <c r="Q80">
-        <v>0.20729</v>
+        <v>0.352452</v>
       </c>
       <c r="R80">
-        <v>0.0563941</v>
+        <v>0.063286</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>0.033386</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032092</t>
+          <t>ENSMUSG00000048562</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mpzl2</t>
+          <t>Sp8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chr9:45039798-45054015</t>
+          <t>chr12:118846328-118852576</t>
         </is>
       </c>
       <c r="D81">
-        <v>26.272</v>
+        <v>49.676</v>
       </c>
       <c r="E81">
-        <v>25.7428</v>
+        <v>49.7447</v>
       </c>
       <c r="F81">
-        <v>53.9712</v>
+        <v>50.4009</v>
       </c>
       <c r="G81">
-        <v>54.2066</v>
+        <v>49.5541</v>
       </c>
       <c r="H81">
-        <v>40.1107</v>
+        <v>22.3683</v>
       </c>
       <c r="I81">
-        <v>54.6116</v>
+        <v>43.7082</v>
       </c>
       <c r="J81">
-        <v>49.5278</v>
+        <v>27.5043</v>
       </c>
       <c r="K81">
-        <v>50.6506</v>
+        <v>33.2593</v>
       </c>
       <c r="L81">
-        <v>1.91169</v>
+        <v>0.113231</v>
       </c>
       <c r="M81">
-        <v>1.89072</v>
+        <v>0.112124</v>
       </c>
       <c r="N81">
-        <v>1.52023</v>
+        <v>0.781029</v>
       </c>
       <c r="O81">
-        <v>1.20729</v>
+        <v>0.28374</v>
       </c>
       <c r="P81">
-        <v>2.30963</v>
+        <v>0.750358</v>
       </c>
       <c r="Q81">
-        <v>1.27932</v>
+        <v>0.751068</v>
       </c>
       <c r="R81">
-        <v>2.80364</v>
+        <v>0.0408669</v>
       </c>
       <c r="S81">
-        <v>2.39514</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ENSMUSG00000016494</t>
+          <t>ENSMUSG00000015647</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cd34</t>
+          <t>Lama5</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>chr1:194938818-194961279</t>
+          <t>chr2:180176372-180225859</t>
         </is>
       </c>
       <c r="D82">
-        <v>2.36624</v>
+        <v>43.3508</v>
       </c>
       <c r="E82">
-        <v>1.08443</v>
+        <v>45.2229</v>
       </c>
       <c r="F82">
-        <v>0.519572</v>
+        <v>56.2322</v>
       </c>
       <c r="G82">
-        <v>0.915344</v>
+        <v>69.5459</v>
       </c>
       <c r="H82">
-        <v>0.798854</v>
+        <v>64.4087</v>
       </c>
       <c r="I82">
-        <v>0.365704</v>
+        <v>81.1092</v>
       </c>
       <c r="J82">
-        <v>0.476843</v>
+        <v>69.2295</v>
       </c>
       <c r="K82">
-        <v>0.230055</v>
+        <v>101.644</v>
       </c>
       <c r="L82">
-        <v>39.2524</v>
+        <v>1.10038</v>
       </c>
       <c r="M82">
-        <v>28.0083</v>
+        <v>1.37559</v>
       </c>
       <c r="N82">
-        <v>19.9382</v>
+        <v>1.0542</v>
       </c>
       <c r="O82">
-        <v>19.1552</v>
+        <v>0.977531</v>
       </c>
       <c r="P82">
-        <v>28.4333</v>
+        <v>2.58612</v>
       </c>
       <c r="Q82">
-        <v>22.9259</v>
+        <v>1.47667</v>
       </c>
       <c r="R82">
-        <v>25.0198</v>
+        <v>0.899904</v>
       </c>
       <c r="S82">
-        <v>20.5561</v>
+        <v>1.36826</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ENSMUSG00000070473</t>
+          <t>ENSMUSG00000002799</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cldn3</t>
+          <t>Jag2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>chr5:134986213-134987472</t>
+          <t>chr12:112907818-112929776</t>
         </is>
       </c>
       <c r="D83">
-        <v>28.5977</v>
+        <v>48.8115</v>
       </c>
       <c r="E83">
-        <v>13.1205</v>
+        <v>56.6199</v>
       </c>
       <c r="F83">
-        <v>25.0185</v>
+        <v>70.2803</v>
       </c>
       <c r="G83">
-        <v>15.4319</v>
+        <v>80.87130000000001</v>
       </c>
       <c r="H83">
-        <v>11.5218</v>
+        <v>53.2527</v>
       </c>
       <c r="I83">
-        <v>15.1778</v>
+        <v>77.5647</v>
       </c>
       <c r="J83">
-        <v>15.9515</v>
+        <v>68.2826</v>
       </c>
       <c r="K83">
-        <v>10.2688</v>
+        <v>80.6559</v>
       </c>
       <c r="L83">
-        <v>0.0287667</v>
+        <v>0.786862</v>
       </c>
       <c r="M83">
-        <v>0.0398801</v>
+        <v>1.05488</v>
       </c>
       <c r="N83">
-        <v>0.223314</v>
+        <v>1.47311</v>
       </c>
       <c r="O83">
-        <v>0.144164</v>
+        <v>1.77358</v>
       </c>
       <c r="P83">
-        <v>0.184675</v>
+        <v>2.06497</v>
       </c>
       <c r="Q83">
-        <v>0.242853</v>
+        <v>1.75908</v>
       </c>
       <c r="R83">
-        <v>0.029071</v>
+        <v>1.32043</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>1.2706</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023467</t>
+          <t>ENSMUSG00000001507</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tulp2</t>
+          <t>Itga3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>chr7:45486261-45523632</t>
+          <t>chr11:95044473-95076801</t>
         </is>
       </c>
       <c r="D84">
-        <v>14.5207</v>
+        <v>114.493</v>
       </c>
       <c r="E84">
-        <v>10.6596</v>
+        <v>100.58</v>
       </c>
       <c r="F84">
-        <v>25.539</v>
+        <v>93.3182</v>
       </c>
       <c r="G84">
-        <v>23.0482</v>
+        <v>77.8737</v>
       </c>
       <c r="H84">
-        <v>19.4639</v>
+        <v>64.6769</v>
       </c>
       <c r="I84">
-        <v>22.8221</v>
+        <v>81.2561</v>
       </c>
       <c r="J84">
-        <v>15.9585</v>
+        <v>75.1315</v>
       </c>
       <c r="K84">
-        <v>16.2936</v>
+        <v>70.4495</v>
       </c>
       <c r="L84">
-        <v>0.26724</v>
+        <v>2.56115</v>
       </c>
       <c r="M84">
-        <v>0.21886</v>
+        <v>2.08138</v>
       </c>
       <c r="N84">
-        <v>0.372872</v>
+        <v>2.16316</v>
       </c>
       <c r="O84">
-        <v>0.347825</v>
+        <v>1.45932</v>
       </c>
       <c r="P84">
-        <v>0.453462</v>
+        <v>3.22423</v>
       </c>
       <c r="Q84">
-        <v>0.163021</v>
+        <v>1.49702</v>
       </c>
       <c r="R84">
-        <v>0.263945</v>
+        <v>2.03151</v>
       </c>
       <c r="S84">
-        <v>0.282997</v>
+        <v>0.990215</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020159</t>
+          <t>ENSMUSG00000041782</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gabrp</t>
+          <t>Lad1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>chr11:33550780-33578959</t>
+          <t>chr1:135818597-135833342</t>
         </is>
       </c>
       <c r="D85">
-        <v>0.0778509</v>
+        <v>56.8489</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>40.6498</v>
       </c>
       <c r="F85">
-        <v>6.42729</v>
+        <v>70.6345</v>
       </c>
       <c r="G85">
-        <v>12.7485</v>
+        <v>45.8327</v>
       </c>
       <c r="H85">
-        <v>28.3142</v>
+        <v>37.0514</v>
       </c>
       <c r="I85">
-        <v>49.9334</v>
+        <v>40.2701</v>
       </c>
       <c r="J85">
-        <v>70.3421</v>
+        <v>52.5904</v>
       </c>
       <c r="K85">
-        <v>75.13160000000001</v>
+        <v>32.0289</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1.07696</v>
       </c>
       <c r="M85">
-        <v>0.0153076</v>
+        <v>1.19106</v>
       </c>
       <c r="N85">
-        <v>0.137349</v>
+        <v>1.07088</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.444709</v>
       </c>
       <c r="P85">
-        <v>0.8163550000000001</v>
+        <v>0.983988</v>
       </c>
       <c r="Q85">
-        <v>0.559303</v>
+        <v>0.510778</v>
       </c>
       <c r="R85">
-        <v>0.08926920000000001</v>
+        <v>0.293488</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>0.135474</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074121</t>
+          <t>ENSMUSG00000035557</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ntf5</t>
+          <t>Krt17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chr7:45413694-45417179</t>
+          <t>chr11:100256216-100261029</t>
         </is>
       </c>
       <c r="D86">
-        <v>12.2277</v>
+        <v>2.52442</v>
       </c>
       <c r="E86">
-        <v>9.75956</v>
+        <v>1.69003</v>
       </c>
       <c r="F86">
-        <v>20.2968</v>
+        <v>17.1113</v>
       </c>
       <c r="G86">
-        <v>15.108</v>
+        <v>22.5262</v>
       </c>
       <c r="H86">
-        <v>18.6967</v>
+        <v>100.126</v>
       </c>
       <c r="I86">
-        <v>20.1328</v>
+        <v>103.822</v>
       </c>
       <c r="J86">
-        <v>22.9408</v>
+        <v>260.64</v>
       </c>
       <c r="K86">
-        <v>21.0071</v>
+        <v>166.274</v>
       </c>
       <c r="L86">
-        <v>0.09224980000000001</v>
+        <v>0.0934036</v>
       </c>
       <c r="M86">
-        <v>0.102311</v>
+        <v>0.0647441</v>
       </c>
       <c r="N86">
-        <v>0.358065</v>
+        <v>0.634451</v>
       </c>
       <c r="O86">
-        <v>0.246564</v>
+        <v>0.0390075</v>
       </c>
       <c r="P86">
-        <v>0.651443</v>
+        <v>2.29858</v>
       </c>
       <c r="Q86">
-        <v>0.40497</v>
+        <v>1.41935</v>
       </c>
       <c r="R86">
-        <v>0.426077</v>
+        <v>1.25069</v>
       </c>
       <c r="S86">
-        <v>0.147541</v>
+        <v>0.11204</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ENSMUSG00000006143</t>
+          <t>ENSMUSG00000027356</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Upk3bl</t>
+          <t>Fermt1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>chr5:136057190-136064326</t>
+          <t>chr2:132904388-132945906</t>
         </is>
       </c>
       <c r="D87">
-        <v>3.36159</v>
+        <v>24.5566</v>
       </c>
       <c r="E87">
-        <v>5.62507</v>
+        <v>29.5033</v>
       </c>
       <c r="F87">
-        <v>25.8872</v>
+        <v>30.7073</v>
       </c>
       <c r="G87">
-        <v>17.1279</v>
+        <v>34.8361</v>
       </c>
       <c r="H87">
-        <v>17.6204</v>
+        <v>25.7365</v>
       </c>
       <c r="I87">
-        <v>21.5771</v>
+        <v>46.2366</v>
       </c>
       <c r="J87">
-        <v>22.8689</v>
+        <v>34.837</v>
       </c>
       <c r="K87">
-        <v>17.0892</v>
+        <v>41.5926</v>
       </c>
       <c r="L87">
-        <v>0.0348806</v>
+        <v>0.07368719999999999</v>
       </c>
       <c r="M87">
-        <v>0.145533</v>
+        <v>0.0715083</v>
       </c>
       <c r="N87">
-        <v>0.244421</v>
+        <v>0.337497</v>
       </c>
       <c r="O87">
-        <v>0.0582754</v>
+        <v>0.320044</v>
       </c>
       <c r="P87">
-        <v>0.449287</v>
+        <v>0.7411180000000001</v>
       </c>
       <c r="Q87">
-        <v>0.236192</v>
+        <v>0.646962</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>0.02234</v>
       </c>
       <c r="S87">
-        <v>0.0558037</v>
+        <v>0.0117853</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029055</t>
+          <t>ENSMUSG00000023039</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Plch2</t>
+          <t>Krt7</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chr4:154983114-155056784</t>
+          <t>chr15:101411102-101430313</t>
         </is>
       </c>
       <c r="D88">
-        <v>10.4882</v>
+        <v>17.4123</v>
       </c>
       <c r="E88">
-        <v>7.57837</v>
+        <v>20.0613</v>
       </c>
       <c r="F88">
-        <v>13.5827</v>
+        <v>35.5343</v>
       </c>
       <c r="G88">
-        <v>13.8081</v>
+        <v>30.6446</v>
       </c>
       <c r="H88">
-        <v>14.3186</v>
+        <v>27.6444</v>
       </c>
       <c r="I88">
-        <v>16.865</v>
+        <v>37.3108</v>
       </c>
       <c r="J88">
-        <v>23.5912</v>
+        <v>43.2767</v>
       </c>
       <c r="K88">
-        <v>21.1543</v>
+        <v>40.5773</v>
       </c>
       <c r="L88">
-        <v>0.0877551</v>
+        <v>0.252819</v>
       </c>
       <c r="M88">
-        <v>0.0226881</v>
+        <v>0.110824</v>
       </c>
       <c r="N88">
-        <v>0.255888</v>
+        <v>0.319756</v>
       </c>
       <c r="O88">
-        <v>0.0820147</v>
+        <v>0.0591115</v>
       </c>
       <c r="P88">
-        <v>0.362872</v>
+        <v>0.494722</v>
       </c>
       <c r="Q88">
-        <v>0.0755723</v>
+        <v>0.268861</v>
       </c>
       <c r="R88">
-        <v>0.0849425</v>
+        <v>0.05364</v>
       </c>
       <c r="S88">
-        <v>0.0841959</v>
+        <v>0.0141487</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052305</t>
+          <t>ENSMUSG00000053399</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hbb-bs</t>
+          <t>Adamts18</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>chr7:103826533-103828096</t>
+          <t>chr8:113697125-113848615</t>
         </is>
       </c>
       <c r="D89">
-        <v>0.271073</v>
+        <v>35.9205</v>
       </c>
       <c r="E89">
-        <v>10.6993</v>
+        <v>45.0042</v>
       </c>
       <c r="F89">
-        <v>0.222424</v>
+        <v>42.7687</v>
       </c>
       <c r="G89">
-        <v>1.1183</v>
+        <v>56.8442</v>
       </c>
       <c r="H89">
-        <v>0.505811</v>
+        <v>22.3076</v>
       </c>
       <c r="I89">
-        <v>0.544981</v>
+        <v>47.3255</v>
       </c>
       <c r="J89">
-        <v>3.22656</v>
+        <v>15.4926</v>
       </c>
       <c r="K89">
-        <v>0.179797</v>
+        <v>26.4169</v>
       </c>
       <c r="L89">
-        <v>7.42486</v>
+        <v>0.141223</v>
       </c>
       <c r="M89">
-        <v>4.11522</v>
+        <v>0.302571</v>
       </c>
       <c r="N89">
-        <v>13.3492</v>
+        <v>0.353808</v>
       </c>
       <c r="O89">
-        <v>23.7324</v>
+        <v>0.171572</v>
       </c>
       <c r="P89">
-        <v>92.31659999999999</v>
+        <v>0.576938</v>
       </c>
       <c r="Q89">
-        <v>29.0179</v>
+        <v>0.368506</v>
       </c>
       <c r="R89">
-        <v>206.941</v>
+        <v>0.0843327</v>
       </c>
       <c r="S89">
-        <v>63.1427</v>
+        <v>0.0616001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022297</t>
+          <t>ENSMUSG00000026638</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fzd6</t>
+          <t>Irf6</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chr15:39006033-39038188</t>
+          <t>chr1:193153110-193172023</t>
         </is>
       </c>
       <c r="D90">
-        <v>25.6593</v>
+        <v>12.9548</v>
       </c>
       <c r="E90">
-        <v>28.0166</v>
+        <v>11.5196</v>
       </c>
       <c r="F90">
-        <v>20.5042</v>
+        <v>36.9182</v>
       </c>
       <c r="G90">
-        <v>25.1169</v>
+        <v>44.7327</v>
       </c>
       <c r="H90">
-        <v>17.8174</v>
+        <v>35.6507</v>
       </c>
       <c r="I90">
-        <v>26.5787</v>
+        <v>55.502</v>
       </c>
       <c r="J90">
-        <v>26.0923</v>
+        <v>48.4121</v>
       </c>
       <c r="K90">
-        <v>28.9491</v>
+        <v>50.5127</v>
       </c>
       <c r="L90">
-        <v>0.821605</v>
+        <v>0.0264167</v>
       </c>
       <c r="M90">
-        <v>0.688971</v>
+        <v>0.158696</v>
       </c>
       <c r="N90">
-        <v>0.303127</v>
+        <v>0.403306</v>
       </c>
       <c r="O90">
-        <v>0.474394</v>
+        <v>0.250063</v>
       </c>
       <c r="P90">
-        <v>1.21725</v>
+        <v>0.904473</v>
       </c>
       <c r="Q90">
-        <v>1.00393</v>
+        <v>0.505498</v>
       </c>
       <c r="R90">
-        <v>1.04041</v>
+        <v>0.391543</v>
       </c>
       <c r="S90">
-        <v>1.02646</v>
+        <v>0.309833</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021508</t>
+          <t>ENSMUSG00000003309</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cxcl14</t>
+          <t>Ap1m2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>chr13:56288642-56296551</t>
+          <t>chr9:21294612-21312337</t>
         </is>
       </c>
       <c r="D91">
-        <v>18.4491</v>
+        <v>39.1499</v>
       </c>
       <c r="E91">
-        <v>20.411</v>
+        <v>35.7783</v>
       </c>
       <c r="F91">
-        <v>83.02970000000001</v>
+        <v>36.3993</v>
       </c>
       <c r="G91">
-        <v>59.0497</v>
+        <v>28.1194</v>
       </c>
       <c r="H91">
-        <v>193.61</v>
+        <v>28.5975</v>
       </c>
       <c r="I91">
-        <v>165.561</v>
+        <v>35.2923</v>
       </c>
       <c r="J91">
-        <v>665.99</v>
+        <v>38.1888</v>
       </c>
       <c r="K91">
-        <v>408.669</v>
+        <v>34.8372</v>
       </c>
       <c r="L91">
-        <v>0.872248</v>
+        <v>0.29721</v>
       </c>
       <c r="M91">
-        <v>0.137832</v>
+        <v>0.088292</v>
       </c>
       <c r="N91">
-        <v>11.2371</v>
+        <v>0.528958</v>
       </c>
       <c r="O91">
-        <v>9.05186</v>
+        <v>0.432646</v>
       </c>
       <c r="P91">
-        <v>17.4452</v>
+        <v>0.736939</v>
       </c>
       <c r="Q91">
-        <v>10.3145</v>
+        <v>0.401144</v>
       </c>
       <c r="R91">
-        <v>52.4021</v>
+        <v>0.107269</v>
       </c>
       <c r="S91">
-        <v>15.7491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ENSMUSG00000044338</t>
+          <t>ENSMUSG00000025064</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Aplnr</t>
+          <t>Col17a1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chr2:85136224-85139923</t>
+          <t>chr19:47646343-47692094</t>
         </is>
       </c>
       <c r="D92">
-        <v>1.05026</v>
+        <v>5.27031</v>
       </c>
       <c r="E92">
-        <v>0.789376</v>
+        <v>3.39695</v>
       </c>
       <c r="F92">
-        <v>0.396502</v>
+        <v>14.3773</v>
       </c>
       <c r="G92">
-        <v>0.666021</v>
+        <v>17.1647</v>
       </c>
       <c r="H92">
-        <v>0.216834</v>
+        <v>79.21250000000001</v>
       </c>
       <c r="I92">
-        <v>0.107945</v>
+        <v>52.7212</v>
       </c>
       <c r="J92">
-        <v>0.6241679999999999</v>
+        <v>166.071</v>
       </c>
       <c r="K92">
-        <v>0.167888</v>
+        <v>159.089</v>
       </c>
       <c r="L92">
-        <v>14.9118</v>
+        <v>0.039673</v>
       </c>
       <c r="M92">
-        <v>13.4515</v>
+        <v>0.08171589999999999</v>
       </c>
       <c r="N92">
-        <v>14.7227</v>
+        <v>0.287464</v>
       </c>
       <c r="O92">
-        <v>16.6834</v>
+        <v>0.353478</v>
       </c>
       <c r="P92">
-        <v>26.7769</v>
+        <v>1.98332</v>
       </c>
       <c r="Q92">
-        <v>22.8564</v>
+        <v>0.886748</v>
       </c>
       <c r="R92">
-        <v>30.0501</v>
+        <v>0.183994</v>
       </c>
       <c r="S92">
-        <v>21.1486</v>
+        <v>0.169212</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ENSMUSG00000003534</t>
+          <t>ENSMUSG00000001510</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ddr1</t>
+          <t>Dlx3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>chr17:35681566-35704621</t>
+          <t>chr11:95120118-95125296</t>
         </is>
       </c>
       <c r="D93">
-        <v>49.3478</v>
+        <v>48.0273</v>
       </c>
       <c r="E93">
-        <v>37.603</v>
+        <v>56.6662</v>
       </c>
       <c r="F93">
-        <v>56.6182</v>
+        <v>40.3723</v>
       </c>
       <c r="G93">
-        <v>47.9938</v>
+        <v>34.0841</v>
       </c>
       <c r="H93">
-        <v>53.2394</v>
+        <v>42.9976</v>
       </c>
       <c r="I93">
-        <v>62.4119</v>
+        <v>53.5187</v>
       </c>
       <c r="J93">
-        <v>100.703</v>
+        <v>91.64579999999999</v>
       </c>
       <c r="K93">
-        <v>64.1846</v>
+        <v>61.4586</v>
       </c>
       <c r="L93">
-        <v>1.88665</v>
+        <v>0.277846</v>
       </c>
       <c r="M93">
-        <v>1.36728</v>
+        <v>0.28889</v>
       </c>
       <c r="N93">
-        <v>3.12901</v>
+        <v>0.517657</v>
       </c>
       <c r="O93">
-        <v>2.44271</v>
+        <v>0.278484</v>
       </c>
       <c r="P93">
-        <v>5.42959</v>
+        <v>2.00667</v>
       </c>
       <c r="Q93">
-        <v>3.5253</v>
+        <v>0.703687</v>
       </c>
       <c r="R93">
-        <v>5.82512</v>
+        <v>6.80905</v>
       </c>
       <c r="S93">
-        <v>5.11228</v>
+        <v>2.13301</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENSMUSG00000034687</t>
+          <t>ENSMUSG00000026479</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fras1</t>
+          <t>Lamc2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>chr5:96373954-96784728</t>
+          <t>chr1:153122755-153186447</t>
         </is>
       </c>
       <c r="D94">
-        <v>14.4905</v>
+        <v>14.8876</v>
       </c>
       <c r="E94">
-        <v>11.3875</v>
+        <v>9.975210000000001</v>
       </c>
       <c r="F94">
-        <v>26.728</v>
+        <v>31.8069</v>
       </c>
       <c r="G94">
-        <v>28.1579</v>
+        <v>30.006</v>
       </c>
       <c r="H94">
-        <v>33.5661</v>
+        <v>46.9624</v>
       </c>
       <c r="I94">
-        <v>33.898</v>
+        <v>53.3776</v>
       </c>
       <c r="J94">
-        <v>27.6685</v>
+        <v>52.6774</v>
       </c>
       <c r="K94">
-        <v>40.308</v>
+        <v>44.7981</v>
       </c>
       <c r="L94">
-        <v>1.03067</v>
+        <v>0.0663031</v>
       </c>
       <c r="M94">
-        <v>1.03599</v>
+        <v>0.061278</v>
       </c>
       <c r="N94">
-        <v>0.706074</v>
+        <v>0.45181</v>
       </c>
       <c r="O94">
-        <v>0.534458</v>
+        <v>0.14768</v>
       </c>
       <c r="P94">
-        <v>1.53067</v>
+        <v>1.21392</v>
       </c>
       <c r="Q94">
-        <v>0.983932</v>
+        <v>0.435362</v>
       </c>
       <c r="R94">
-        <v>1.18706</v>
+        <v>1.23589</v>
       </c>
       <c r="S94">
-        <v>1.16229</v>
+        <v>0.164958</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039457</t>
+          <t>ENSMUSG00000041911</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ppl</t>
+          <t>Dlx1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>chr16:5086290-5132421</t>
+          <t>chr2:71528112-71533980</t>
         </is>
       </c>
       <c r="D95">
-        <v>8.721170000000001</v>
+        <v>18.6813</v>
       </c>
       <c r="E95">
-        <v>8.75863</v>
+        <v>17.9223</v>
       </c>
       <c r="F95">
-        <v>13.3908</v>
+        <v>30.6734</v>
       </c>
       <c r="G95">
-        <v>15.3193</v>
+        <v>38.6004</v>
       </c>
       <c r="H95">
-        <v>11.2803</v>
+        <v>23.2924</v>
       </c>
       <c r="I95">
-        <v>17.1941</v>
+        <v>42.6947</v>
       </c>
       <c r="J95">
-        <v>18.1602</v>
+        <v>25.0212</v>
       </c>
       <c r="K95">
-        <v>21.2131</v>
+        <v>32.5186</v>
       </c>
       <c r="L95">
-        <v>0.0407786</v>
+        <v>0.0352394</v>
       </c>
       <c r="M95">
-        <v>0.0242283</v>
+        <v>0.0122133</v>
       </c>
       <c r="N95">
-        <v>0.212549</v>
+        <v>0.314815</v>
       </c>
       <c r="O95">
-        <v>0.107046</v>
+        <v>0.161884</v>
       </c>
       <c r="P95">
-        <v>0.255556</v>
+        <v>0.520549</v>
       </c>
       <c r="Q95">
-        <v>0.255736</v>
+        <v>0.471536</v>
       </c>
       <c r="R95">
-        <v>0.0294357</v>
+        <v>0.0356122</v>
       </c>
       <c r="S95">
-        <v>0.00931714</v>
+        <v>0.08777119999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ENSMUSG00000019230</t>
+          <t>ENSMUSG00000004951</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lhx9</t>
+          <t>Hspb1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>chr1:138825185-138848577</t>
+          <t>chr5:135887918-135889563</t>
         </is>
       </c>
       <c r="D96">
-        <v>5.45811</v>
+        <v>35.7246</v>
       </c>
       <c r="E96">
-        <v>4.34652</v>
+        <v>22.2914</v>
       </c>
       <c r="F96">
-        <v>6.49334</v>
+        <v>158.399</v>
       </c>
       <c r="G96">
-        <v>13.2663</v>
+        <v>98.6888</v>
       </c>
       <c r="H96">
-        <v>51.2898</v>
+        <v>77.19410000000001</v>
       </c>
       <c r="I96">
-        <v>6.05525</v>
+        <v>87.1097</v>
       </c>
       <c r="J96">
-        <v>4.89739</v>
+        <v>101.805</v>
       </c>
       <c r="K96">
-        <v>5.54853</v>
+        <v>61.0827</v>
       </c>
       <c r="L96">
-        <v>60.1129</v>
+        <v>1.36366</v>
       </c>
       <c r="M96">
-        <v>80.8394</v>
+        <v>0.389217</v>
       </c>
       <c r="N96">
-        <v>103.05</v>
+        <v>3.30035</v>
       </c>
       <c r="O96">
-        <v>117.462</v>
+        <v>1.20599</v>
       </c>
       <c r="P96">
-        <v>133.631</v>
+        <v>3.90514</v>
       </c>
       <c r="Q96">
-        <v>150.677</v>
+        <v>2.37017</v>
       </c>
       <c r="R96">
-        <v>164.99</v>
+        <v>4.9449</v>
       </c>
       <c r="S96">
-        <v>254.785</v>
+        <v>1.98855</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020911</t>
+          <t>ENSMUSG00000001494</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Krt19</t>
+          <t>Sost</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>chr11:100140809-100146120</t>
+          <t>chr11:101962457-101967015</t>
         </is>
       </c>
       <c r="D97">
-        <v>56.7627</v>
+        <v>18.7043</v>
       </c>
       <c r="E97">
-        <v>48.9865</v>
+        <v>13.5732</v>
       </c>
       <c r="F97">
-        <v>28.4948</v>
+        <v>51.9582</v>
       </c>
       <c r="G97">
-        <v>24.7979</v>
+        <v>41.058</v>
       </c>
       <c r="H97">
-        <v>8.129339999999999</v>
+        <v>37.1906</v>
       </c>
       <c r="I97">
-        <v>14.8394</v>
+        <v>65.43470000000001</v>
       </c>
       <c r="J97">
-        <v>13.9185</v>
+        <v>16.7332</v>
       </c>
       <c r="K97">
-        <v>7.09284</v>
+        <v>34.6771</v>
       </c>
       <c r="L97">
-        <v>2.04526</v>
+        <v>0.157771</v>
       </c>
       <c r="M97">
-        <v>0.860181</v>
+        <v>0.218723</v>
       </c>
       <c r="N97">
-        <v>0.249755</v>
+        <v>0.9934229999999999</v>
       </c>
       <c r="O97">
-        <v>0.230332</v>
+        <v>0.234272</v>
       </c>
       <c r="P97">
-        <v>0.27047</v>
+        <v>1.12539</v>
       </c>
       <c r="Q97">
-        <v>0.310408</v>
+        <v>1.06554</v>
       </c>
       <c r="R97">
-        <v>0.0464472</v>
+        <v>0.141725</v>
       </c>
       <c r="S97">
-        <v>0.110263</v>
+        <v>0.39252</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000247</t>
+          <t>ENSMUSG00000028919</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lhx2</t>
+          <t>Arhgef19</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chr2:38339280-38369733</t>
+          <t>chr4:141239498-141257564</t>
         </is>
       </c>
       <c r="D98">
-        <v>5.24742</v>
+        <v>33.4085</v>
       </c>
       <c r="E98">
-        <v>3.6129</v>
+        <v>22.9376</v>
       </c>
       <c r="F98">
-        <v>5.34213</v>
+        <v>32.4794</v>
       </c>
       <c r="G98">
-        <v>7.68694</v>
+        <v>31.364</v>
       </c>
       <c r="H98">
-        <v>48.7736</v>
+        <v>34.6805</v>
       </c>
       <c r="I98">
-        <v>3.03886</v>
+        <v>36.4598</v>
       </c>
       <c r="J98">
-        <v>3.96815</v>
+        <v>52.3042</v>
       </c>
       <c r="K98">
-        <v>3.14521</v>
+        <v>41.7432</v>
       </c>
       <c r="L98">
-        <v>54.334</v>
+        <v>0.151085</v>
       </c>
       <c r="M98">
-        <v>57.3802</v>
+        <v>0.0653584</v>
       </c>
       <c r="N98">
-        <v>95.4943</v>
+        <v>0.481311</v>
       </c>
       <c r="O98">
-        <v>86.50230000000001</v>
+        <v>0.23038</v>
       </c>
       <c r="P98">
-        <v>120.479</v>
+        <v>1.54133</v>
       </c>
       <c r="Q98">
-        <v>97.3383</v>
+        <v>0.922872</v>
       </c>
       <c r="R98">
-        <v>116.715</v>
+        <v>1.2877</v>
       </c>
       <c r="S98">
-        <v>130.794</v>
+        <v>1.1748</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001025</t>
+          <t>ENSMUSG00000027315</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>S100a6</t>
+          <t>Spint1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>chr3:90612881-90614414</t>
+          <t>chr2:119237361-119249527</t>
         </is>
       </c>
       <c r="D99">
-        <v>46.4869</v>
+        <v>45.6286</v>
       </c>
       <c r="E99">
-        <v>33.7604</v>
+        <v>31.7473</v>
       </c>
       <c r="F99">
-        <v>74.8416</v>
+        <v>69.3074</v>
       </c>
       <c r="G99">
-        <v>61.7947</v>
+        <v>59.4163</v>
       </c>
       <c r="H99">
-        <v>43.632</v>
+        <v>46.1464</v>
       </c>
       <c r="I99">
-        <v>70.8656</v>
+        <v>56.3002</v>
       </c>
       <c r="J99">
-        <v>29.5534</v>
+        <v>51.3161</v>
       </c>
       <c r="K99">
-        <v>35.6778</v>
+        <v>43.0707</v>
       </c>
       <c r="L99">
-        <v>1.61267</v>
+        <v>0.286798</v>
       </c>
       <c r="M99">
-        <v>1.32144</v>
+        <v>0.265062</v>
       </c>
       <c r="N99">
-        <v>3.49628</v>
+        <v>1.18902</v>
       </c>
       <c r="O99">
-        <v>2.76435</v>
+        <v>1.03802</v>
       </c>
       <c r="P99">
-        <v>3.82092</v>
+        <v>2.67839</v>
       </c>
       <c r="Q99">
-        <v>2.03533</v>
+        <v>1.75477</v>
       </c>
       <c r="R99">
-        <v>4.49547</v>
+        <v>2.15741</v>
       </c>
       <c r="S99">
-        <v>2.35268</v>
+        <v>2.29912</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027684</t>
+          <t>ENSMUSG00000058665</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mecom</t>
+          <t>En1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>chr3:29951295-30509822</t>
+          <t>chr1:120602417-120607992</t>
         </is>
       </c>
       <c r="D100">
-        <v>5.53952</v>
+        <v>26.5666</v>
       </c>
       <c r="E100">
-        <v>3.98064</v>
+        <v>18.2072</v>
       </c>
       <c r="F100">
-        <v>5.98291</v>
+        <v>25.7645</v>
       </c>
       <c r="G100">
-        <v>7.13484</v>
+        <v>28.0807</v>
       </c>
       <c r="H100">
-        <v>20.5859</v>
+        <v>28.717</v>
       </c>
       <c r="I100">
-        <v>4.96762</v>
+        <v>28.8902</v>
       </c>
       <c r="J100">
-        <v>2.52903</v>
+        <v>23.1302</v>
       </c>
       <c r="K100">
-        <v>3.16926</v>
+        <v>31.563</v>
       </c>
       <c r="L100">
-        <v>44.51</v>
+        <v>0.331255</v>
       </c>
       <c r="M100">
-        <v>58.1403</v>
+        <v>0.172211</v>
       </c>
       <c r="N100">
-        <v>75.12649999999999</v>
+        <v>0.257152</v>
       </c>
       <c r="O100">
-        <v>76.8262</v>
+        <v>0.20751</v>
       </c>
       <c r="P100">
-        <v>103.045</v>
+        <v>0.723628</v>
       </c>
       <c r="Q100">
-        <v>90.21210000000001</v>
+        <v>0.186434</v>
       </c>
       <c r="R100">
-        <v>122.18</v>
+        <v>0.0697416</v>
       </c>
       <c r="S100">
-        <v>153.327</v>
+        <v>0.0220749</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054690</t>
+          <t>ENSMUSG00000023043</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Emcn</t>
+          <t>Krt18</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chr3:137341066-137432185</t>
+          <t>chr15:102028179-102032027</t>
         </is>
       </c>
       <c r="D101">
-        <v>0.63884</v>
+        <v>86.0055</v>
       </c>
       <c r="E101">
-        <v>0.18223</v>
+        <v>71.6562</v>
       </c>
       <c r="F101">
-        <v>0.102934</v>
+        <v>146.243</v>
       </c>
       <c r="G101">
-        <v>0.601773</v>
+        <v>103.098</v>
       </c>
       <c r="H101">
-        <v>0.283848</v>
+        <v>46.2486</v>
       </c>
       <c r="I101">
-        <v>0.162964</v>
+        <v>81.9697</v>
       </c>
       <c r="J101">
-        <v>0.375084</v>
+        <v>31.6901</v>
       </c>
       <c r="K101">
-        <v>0.220114</v>
+        <v>32.5301</v>
       </c>
       <c r="L101">
-        <v>18.7839</v>
+        <v>5.82198</v>
       </c>
       <c r="M101">
-        <v>15.5636</v>
+        <v>4.99645</v>
       </c>
       <c r="N101">
-        <v>9.96247</v>
+        <v>2.17174</v>
       </c>
       <c r="O101">
-        <v>13.7774</v>
+        <v>0.968347</v>
       </c>
       <c r="P101">
-        <v>15.5067</v>
+        <v>2.21126</v>
       </c>
       <c r="Q101">
-        <v>20.4193</v>
+        <v>1.61706</v>
       </c>
       <c r="R101">
-        <v>21.867</v>
+        <v>0.86598</v>
       </c>
       <c r="S101">
-        <v>19.5506</v>
+        <v>0.68526</v>
       </c>
     </row>
   </sheetData>
